--- a/Results/Plot data/ipcc_ar6_figure_sectors_and_regions.xlsx
+++ b/Results/Plot data/ipcc_ar6_figure_sectors_and_regions.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t xml:space="preserve">Author</t>
   </si>
@@ -35,7 +35,7 @@
     <t xml:space="preserve">Date</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-02-07</t>
+    <t xml:space="preserve">2022-03-01</t>
   </si>
   <si>
     <t xml:space="preserve">Units</t>
@@ -53,7 +53,7 @@
     <t xml:space="preserve">Code</t>
   </si>
   <si>
-    <t xml:space="preserve">https://github.com/mcc-apsis/AR6-Emissions-trends-and-drivers/blob/master/R/Analysis%20and%20figures/emissions_by_sector.Rmd</t>
+    <t xml:space="preserve">https://github.com/mcc-apsis/AR6-Emissions-trends-and-drivers/blob/master/R/Analysis%20and%20figures/figure_emissions_by_sector_and_region.Rmd</t>
   </si>
   <si>
     <t xml:space="preserve">subsector_title</t>
@@ -173,10 +173,10 @@
     <t xml:space="preserve">Africa</t>
   </si>
   <si>
-    <t xml:space="preserve">Asia-Pacific Developed</t>
+    <t xml:space="preserve">Australia, Japan, New Zealand</t>
   </si>
   <si>
-    <t xml:space="preserve">A. Pacific</t>
+    <t xml:space="preserve">AU, JP, NZ</t>
   </si>
   <si>
     <t xml:space="preserve">Eastern Asia</t>
@@ -185,7 +185,10 @@
     <t xml:space="preserve">E. Asia</t>
   </si>
   <si>
-    <t xml:space="preserve">Eurasia</t>
+    <t xml:space="preserve">Eastern Europe and West-Central Asia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E.E. &amp; W.C. Asia</t>
   </si>
   <si>
     <t xml:space="preserve">Europe</t>
@@ -209,7 +212,7 @@
     <t xml:space="preserve">N. America</t>
   </si>
   <si>
-    <t xml:space="preserve">South-East Asia and developing Pacific</t>
+    <t xml:space="preserve">South-East Asia and Pacific</t>
   </si>
   <si>
     <t xml:space="preserve">S.E. Asia</t>
@@ -809,7 +812,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B2" t="n">
         <v>2.03976069014129</v>
@@ -904,7 +907,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B3" t="n">
         <v>1.33552735669947</v>
@@ -999,7 +1002,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B4" t="n">
         <v>2.22141694768939</v>
@@ -1094,7 +1097,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B5" t="n">
         <v>0.782237072260382</v>
@@ -1189,7 +1192,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B6" t="n">
         <v>0.00405020956175548</v>
@@ -1321,7 +1324,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
         <v>48</v>
@@ -1344,1358 +1347,1266 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D3" t="n">
-        <v>0.129897665410223</v>
+        <v>0.0850495256018457</v>
       </c>
       <c r="E3" t="n">
-        <v>0.158437695303819</v>
+        <v>0.298964188564495</v>
       </c>
       <c r="F3" t="n">
-        <v>0.203142607534552</v>
+        <v>0.731312086768131</v>
       </c>
       <c r="G3" t="n">
-        <v>0.176573655566791</v>
+        <v>1.25948324937295</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0850495256018457</v>
+        <v>0.303127606572757</v>
       </c>
       <c r="E4" t="n">
-        <v>0.298964188564495</v>
+        <v>0.375787097150342</v>
       </c>
       <c r="F4" t="n">
-        <v>0.731312086768131</v>
+        <v>0.306064992485387</v>
       </c>
       <c r="G4" t="n">
-        <v>1.25948324937295</v>
+        <v>0.286658649117998</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D5" t="n">
-        <v>0.303127606572757</v>
+        <v>0.560060631441054</v>
       </c>
       <c r="E5" t="n">
-        <v>0.375787097150342</v>
+        <v>0.50994313951561</v>
       </c>
       <c r="F5" t="n">
-        <v>0.306064992485387</v>
+        <v>0.499696848853983</v>
       </c>
       <c r="G5" t="n">
-        <v>0.286658649117998</v>
+        <v>0.331131676612231</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D6" t="n">
-        <v>0.560060631441054</v>
+        <v>0.0460026044262911</v>
       </c>
       <c r="E6" t="n">
-        <v>0.50994313951561</v>
+        <v>0.0718877223707076</v>
       </c>
       <c r="F6" t="n">
-        <v>0.499696848853983</v>
+        <v>0.106821289281325</v>
       </c>
       <c r="G6" t="n">
-        <v>0.331131676612231</v>
+        <v>0.115061997676815</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0460026044262911</v>
+        <v>0.082886858076661</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0718877223707076</v>
+        <v>0.155838962759448</v>
       </c>
       <c r="F7" t="n">
-        <v>0.106821289281325</v>
+        <v>0.283300977320476</v>
       </c>
       <c r="G7" t="n">
-        <v>0.115061997676815</v>
+        <v>0.312473875966482</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D8" t="n">
-        <v>0.082886858076661</v>
+        <v>0.676042601100096</v>
       </c>
       <c r="E8" t="n">
-        <v>0.155838962759448</v>
+        <v>0.874966126672319</v>
       </c>
       <c r="F8" t="n">
-        <v>0.283300977320476</v>
+        <v>0.940589178964235</v>
       </c>
       <c r="G8" t="n">
-        <v>0.312473875966482</v>
+        <v>0.658440153038487</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D9" t="n">
-        <v>0.676042601100096</v>
+        <v>0.0450021445182644</v>
       </c>
       <c r="E9" t="n">
-        <v>0.874966126672319</v>
+        <v>0.130547524872809</v>
       </c>
       <c r="F9" t="n">
-        <v>0.940589178964235</v>
+        <v>0.226895369463066</v>
       </c>
       <c r="G9" t="n">
-        <v>0.658440153038487</v>
+        <v>0.366604959078136</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0244527764078778</v>
+        <v>0.0237871775857978</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0619448724725585</v>
+        <v>0.0337107976794163</v>
       </c>
       <c r="F10" t="n">
-        <v>0.117823400017666</v>
+        <v>0.0745646495856614</v>
       </c>
       <c r="G10" t="n">
-        <v>0.217588397636768</v>
+        <v>0.084990917512539</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0450021445182644</v>
+        <v>0.0546312901100929</v>
       </c>
       <c r="E11" t="n">
-        <v>0.130547524872809</v>
+        <v>0.16671987245781</v>
       </c>
       <c r="F11" t="n">
-        <v>0.226895369463066</v>
+        <v>0.355636693067886</v>
       </c>
       <c r="G11" t="n">
-        <v>0.366604959078136</v>
+        <v>0.582197374639781</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0237871775857978</v>
+        <v>0.185375001631336</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0337107976794163</v>
+        <v>0.0956156005392669</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0745646495856614</v>
+        <v>0.160244065935336</v>
       </c>
       <c r="G12" t="n">
-        <v>0.084990917512539</v>
+        <v>0.166303691996875</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0972934050860473</v>
+        <v>0.272823852393567</v>
       </c>
       <c r="E13" t="n">
-        <v>0.165312126451704</v>
+        <v>0.352088590994015</v>
       </c>
       <c r="F13" t="n">
-        <v>0.22135113804102</v>
+        <v>0.433885637551522</v>
       </c>
       <c r="G13" t="n">
-        <v>0.220032615500641</v>
+        <v>0.308204546390731</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0546312901100929</v>
+        <v>0.0237808902629864</v>
       </c>
       <c r="E14" t="n">
-        <v>0.16671987245781</v>
+        <v>0.0466754230712448</v>
       </c>
       <c r="F14" t="n">
-        <v>0.355636693067886</v>
+        <v>0.0656189810819208</v>
       </c>
       <c r="G14" t="n">
-        <v>0.582197374639781</v>
+        <v>0.0762172956636353</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D15" t="n">
-        <v>0.185375001631336</v>
+        <v>0.0392234241774011</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0956156005392669</v>
+        <v>0.0755992076656098</v>
       </c>
       <c r="F15" t="n">
-        <v>0.160244065935336</v>
+        <v>0.140260268221808</v>
       </c>
       <c r="G15" t="n">
-        <v>0.166303691996875</v>
+        <v>0.188359930091123</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D16" t="n">
-        <v>0.272823852393567</v>
+        <v>0.613753175612741</v>
       </c>
       <c r="E16" t="n">
-        <v>0.352088590994015</v>
+        <v>0.852955060593005</v>
       </c>
       <c r="F16" t="n">
-        <v>0.433885637551522</v>
+        <v>0.856507745239085</v>
       </c>
       <c r="G16" t="n">
-        <v>0.308204546390731</v>
+        <v>0.618900815492615</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0237808902629864</v>
+        <v>0.0156842605882362</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0466754230712448</v>
+        <v>0.0365793545207991</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0656189810819208</v>
+        <v>0.087389646040852</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0762172956636353</v>
+        <v>0.126091851792753</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0392234241774011</v>
+        <v>0.0939694572236208</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0755992076656098</v>
+        <v>0.116731951558499</v>
       </c>
       <c r="F18" t="n">
-        <v>0.140260268221808</v>
+        <v>0.146142148289114</v>
       </c>
       <c r="G18" t="n">
-        <v>0.188359930091123</v>
+        <v>0.19327211445414</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D19" t="n">
-        <v>0.613753175612741</v>
+        <v>0.0643601734725</v>
       </c>
       <c r="E19" t="n">
-        <v>0.852955060593005</v>
+        <v>0.0800322251777</v>
       </c>
       <c r="F19" t="n">
-        <v>0.856507745239085</v>
+        <v>0.0732847909436</v>
       </c>
       <c r="G19" t="n">
-        <v>0.618900815492615</v>
+        <v>0.0656015359671687</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0256715991840457</v>
+        <v>0.569059520364178</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0569015806231781</v>
+        <v>0.375110109207988</v>
       </c>
       <c r="F20" t="n">
-        <v>0.112939972441351</v>
+        <v>0.434203665809025</v>
       </c>
       <c r="G20" t="n">
-        <v>0.16509995890374</v>
+        <v>0.550175192761805</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0156842605882362</v>
+        <v>0.27839412340939</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0365793545207991</v>
+        <v>0.254325745294047</v>
       </c>
       <c r="F21" t="n">
-        <v>0.087389646040852</v>
+        <v>0.209632231884712</v>
       </c>
       <c r="G21" t="n">
-        <v>0.126091851792753</v>
+        <v>0.246474310419313</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0939694572236208</v>
+        <v>0.559437295445986</v>
       </c>
       <c r="E22" t="n">
-        <v>0.116731951558499</v>
+        <v>0.524483819661655</v>
       </c>
       <c r="F22" t="n">
-        <v>0.146142148289114</v>
+        <v>0.53743394846051</v>
       </c>
       <c r="G22" t="n">
-        <v>0.19327211445414</v>
+        <v>0.437741818774466</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0643601734725</v>
+        <v>0.0783901067706991</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0800322251777</v>
+        <v>0.0914267511011473</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0732847909436</v>
+        <v>0.0947151732033948</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0656015359671687</v>
+        <v>0.0910543408719225</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D24" t="n">
-        <v>0.569059520364178</v>
+        <v>0.046689958762332</v>
       </c>
       <c r="E24" t="n">
-        <v>0.375110109207988</v>
+        <v>0.094291997270879</v>
       </c>
       <c r="F24" t="n">
-        <v>0.434203665809025</v>
+        <v>0.130361562123292</v>
       </c>
       <c r="G24" t="n">
-        <v>0.550175192761805</v>
+        <v>0.136313598135074</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D25" t="n">
-        <v>0.22428740384146</v>
+        <v>0.374081881491127</v>
       </c>
       <c r="E25" t="n">
-        <v>0.211863388427417</v>
+        <v>0.426943398279592</v>
       </c>
       <c r="F25" t="n">
-        <v>0.173997061423552</v>
+        <v>0.375072913109109</v>
       </c>
       <c r="G25" t="n">
-        <v>0.224454236918064</v>
+        <v>0.374607536598805</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D26" t="n">
-        <v>0.613544015013916</v>
+        <v>0.0498023490913937</v>
       </c>
       <c r="E26" t="n">
-        <v>0.566946176528285</v>
+        <v>0.0694475439167402</v>
       </c>
       <c r="F26" t="n">
-        <v>0.57306911892167</v>
+        <v>0.0633957279075429</v>
       </c>
       <c r="G26" t="n">
-        <v>0.459761892275715</v>
+        <v>0.0786860976649169</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0783901067706991</v>
+        <v>0.107232081658165</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0914267511011473</v>
+        <v>0.137621681095225</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0947151732033948</v>
+        <v>0.169295628366556</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0910543408719225</v>
+        <v>0.18727355460203</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D28" t="n">
-        <v>0.046689958762332</v>
+        <v>0.00717448439438151</v>
       </c>
       <c r="E28" t="n">
-        <v>0.094291997270879</v>
+        <v>0.00795425047144376</v>
       </c>
       <c r="F28" t="n">
-        <v>0.130361562123292</v>
+        <v>0.0117625478145997</v>
       </c>
       <c r="G28" t="n">
-        <v>0.136313598135074</v>
+        <v>0.0204037714320719</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D29" t="n">
-        <v>0.374081881491127</v>
+        <v>0.0660410689393</v>
       </c>
       <c r="E29" t="n">
-        <v>0.426943398279592</v>
+        <v>0.082913595683</v>
       </c>
       <c r="F29" t="n">
-        <v>0.375072913109109</v>
+        <v>0.0668002728021</v>
       </c>
       <c r="G29" t="n">
-        <v>0.374607536598805</v>
+        <v>0.0583702982227279</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0498023490913937</v>
+        <v>0.0759297036844</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0694475439167402</v>
+        <v>0.0934017348282</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0633957279075429</v>
+        <v>0.1441304431683</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0786860976649169</v>
+        <v>0.184948247695675</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D31" t="n">
-        <v>0.107232081658165</v>
+        <v>0.12681920046931</v>
       </c>
       <c r="E31" t="n">
-        <v>0.137621681095225</v>
+        <v>0.02995857691693</v>
       </c>
       <c r="F31" t="n">
-        <v>0.169295628366556</v>
+        <v>0.05557327798044</v>
       </c>
       <c r="G31" t="n">
-        <v>0.18727355460203</v>
+        <v>0.0551647577085806</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C32" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D32" t="n">
-        <v>0.00717448439438151</v>
+        <v>0.20885105605725</v>
       </c>
       <c r="E32" t="n">
-        <v>0.00795425047144376</v>
+        <v>0.167345575423605</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0117625478145997</v>
+        <v>0.20559363188998</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0204037714320719</v>
+        <v>0.190800146961158</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C33" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0660410689393</v>
+        <v>0.0128504290669</v>
       </c>
       <c r="E33" t="n">
-        <v>0.082913595683</v>
+        <v>0.016002509731</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0668002728021</v>
+        <v>0.0188041167276292</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0583702982227279</v>
+        <v>0.019020790172927</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C34" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0759297036844</v>
+        <v>0.0104346994514</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0934017348282</v>
+        <v>0.0182452548438</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1441304431683</v>
+        <v>0.0273805196485</v>
       </c>
       <c r="G34" t="n">
-        <v>0.184948247695675</v>
+        <v>0.0284867623782978</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C35" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D35" t="n">
-        <v>0.12400701329801</v>
+        <v>0.25246576301314</v>
       </c>
       <c r="E35" t="n">
-        <v>0.02809819501803</v>
+        <v>0.26989040560789</v>
       </c>
       <c r="F35" t="n">
-        <v>0.05406953069447</v>
+        <v>0.257424119881157</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0531669093813704</v>
+        <v>0.28185411625079</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C36" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D36" t="n">
-        <v>0.21166324322855</v>
+        <v>0.0050838076711</v>
       </c>
       <c r="E36" t="n">
-        <v>0.169205957322505</v>
+        <v>0.013608014661</v>
       </c>
       <c r="F36" t="n">
-        <v>0.20709737917595</v>
+        <v>0.0165578580651</v>
       </c>
       <c r="G36" t="n">
-        <v>0.192797995288368</v>
+        <v>0.0242359465603578</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C37" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0128504290669</v>
+        <v>0.0165868595132</v>
       </c>
       <c r="E37" t="n">
-        <v>0.016002509731</v>
+        <v>0.0146705184996</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0188041167276292</v>
+        <v>0.0228710588521</v>
       </c>
       <c r="G37" t="n">
-        <v>0.019020790172927</v>
+        <v>0.0358984576552881</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0104346994514</v>
+        <v>0.00000042555504412</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0182452548438</v>
+        <v>0.000941302682868</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0273805196485</v>
+        <v>0.002374624041624</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0284867623782978</v>
+        <v>0.002864758638524</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B39" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C39" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D39" t="n">
-        <v>0.25246576301314</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0.26989040560789</v>
+        <v>0.00338903536262018</v>
       </c>
       <c r="F39" t="n">
-        <v>0.257424119881157</v>
+        <v>0.000942298645852</v>
       </c>
       <c r="G39" t="n">
-        <v>0.28185411625079</v>
+        <v>0.00076500121028999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B40" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C40" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0050838076711</v>
+        <v>0.0000705757273212</v>
       </c>
       <c r="E40" t="n">
-        <v>0.013608014661</v>
+        <v>0.00027271993796</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0165578580651</v>
+        <v>0.000199860639836</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0242359465603578</v>
+        <v>0.00032232840894</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C41" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0165868595132</v>
+        <v>0.0000075198902164</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0146705184996</v>
+        <v>0.000119567068084</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0228710588521</v>
+        <v>0.000825882086438</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0358984576552881</v>
+        <v>0.00182693653564956</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C42" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D42" t="n">
-        <v>0.00000042555504412</v>
+        <v>0.00386291248134164</v>
       </c>
       <c r="E42" t="n">
-        <v>0.000941302682868</v>
+        <v>0.00964724623653654</v>
       </c>
       <c r="F42" t="n">
-        <v>0.002374624041624</v>
+        <v>0.012253583271991</v>
       </c>
       <c r="G42" t="n">
-        <v>0.002864758638524</v>
+        <v>0.0125639282840801</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C43" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>0.00010759182691208</v>
       </c>
       <c r="E43" t="n">
-        <v>0.00338903536262018</v>
+        <v>0.000776142835586</v>
       </c>
       <c r="F43" t="n">
-        <v>0.000942298645852</v>
+        <v>0.00150726155794</v>
       </c>
       <c r="G43" t="n">
-        <v>0.00076500121028999</v>
+        <v>0.00262311258379141</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C44" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0000705757273212</v>
+        <v>0.0000007168785056</v>
       </c>
       <c r="E44" t="n">
-        <v>0.00027271993796</v>
+        <v>0.001585693988664</v>
       </c>
       <c r="F44" t="n">
-        <v>0.000199860639836</v>
+        <v>0.00400022984666</v>
       </c>
       <c r="G44" t="n">
-        <v>0.00032232840894</v>
+        <v>0.0048258978672</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C45" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0000075198902164</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.000107279278084</v>
+        <v>0.013071977906374</v>
       </c>
       <c r="F45" t="n">
-        <v>0.000674761178138</v>
+        <v>0.01584681038118</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0016011247183606</v>
+        <v>0.0139457868609654</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C46" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D46" t="n">
-        <v>0.00386291248134164</v>
+        <v>0.00000039495057444</v>
       </c>
       <c r="E46" t="n">
-        <v>0.00965953402653654</v>
+        <v>0.000873607892728</v>
       </c>
       <c r="F46" t="n">
-        <v>0.012404704180291</v>
+        <v>0.002203850426608</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0127897401013691</v>
+        <v>0.0026587364883</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C47" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D47" t="n">
-        <v>0.00010759182691208</v>
+        <v>0.00000007225184</v>
       </c>
       <c r="E47" t="n">
-        <v>0.000776142835586</v>
+        <v>0.000159816986796</v>
       </c>
       <c r="F47" t="n">
-        <v>0.00150726155794</v>
+        <v>0.000403170280548</v>
       </c>
       <c r="G47" t="n">
-        <v>0.00262311258379141</v>
+        <v>0.00048638669832</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0000007168785056</v>
+        <v>0.184187639497506</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001585693988664</v>
+        <v>0.248441115018105</v>
       </c>
       <c r="F48" t="n">
-        <v>0.00400022984666</v>
+        <v>0.354135215361855</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0048258978672</v>
+        <v>0.463319348750798</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>0.1304012424118</v>
       </c>
       <c r="E49" t="n">
-        <v>0.013071977906374</v>
+        <v>0.16633485622332</v>
       </c>
       <c r="F49" t="n">
-        <v>0.01584681038118</v>
+        <v>0.141027362391552</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0139457868609654</v>
+        <v>0.124736835400187</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="B50" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D50" t="n">
-        <v>0.00000039495057444</v>
+        <v>0.784740615487838</v>
       </c>
       <c r="E50" t="n">
-        <v>0.000873607892728</v>
+        <v>0.934468624996453</v>
       </c>
       <c r="F50" t="n">
-        <v>0.002203850426608</v>
+        <v>1.66548274945318</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0026587364883</v>
+        <v>2.57712639287915</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="B51" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D51" t="n">
-        <v>0.00000007225184</v>
+        <v>0.89372345197301</v>
       </c>
       <c r="E51" t="n">
-        <v>0.000159816986796</v>
+        <v>0.75580658696867</v>
       </c>
       <c r="F51" t="n">
-        <v>0.000403170280548</v>
+        <v>0.732340450372312</v>
       </c>
       <c r="G51" t="n">
-        <v>0.00048638669832</v>
+        <v>0.756428345778417</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B52" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D52" t="n">
-        <v>0.184187639497506</v>
+        <v>1.6050357478192</v>
       </c>
       <c r="E52" t="n">
-        <v>0.248441115018105</v>
+        <v>1.56350837183142</v>
       </c>
       <c r="F52" t="n">
-        <v>0.354135215361855</v>
+        <v>1.68886365002799</v>
       </c>
       <c r="G52" t="n">
-        <v>0.463319348750798</v>
+        <v>1.28044211702267</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B53" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D53" t="n">
-        <v>0.35759231290807</v>
+        <v>0.161131622353789</v>
       </c>
       <c r="E53" t="n">
-        <v>0.490084677978843</v>
+        <v>0.226768549109686</v>
       </c>
       <c r="F53" t="n">
-        <v>0.565521107967125</v>
+        <v>0.28746682185221</v>
       </c>
       <c r="G53" t="n">
-        <v>0.521343106467619</v>
+        <v>0.303977536969091</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B54" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C54" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D54" t="n">
-        <v>0.784740615487838</v>
+        <v>0.1792356573463</v>
       </c>
       <c r="E54" t="n">
-        <v>0.934468624996453</v>
+        <v>0.345561116528401</v>
       </c>
       <c r="F54" t="n">
-        <v>1.66548274945318</v>
+        <v>0.585303557160736</v>
       </c>
       <c r="G54" t="n">
-        <v>2.57712639287915</v>
+        <v>0.670460064438177</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C55" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D55" t="n">
-        <v>0.83680454523378</v>
+        <v>1.9163434212171</v>
       </c>
       <c r="E55" t="n">
-        <v>0.71147156041314</v>
+        <v>2.43782696905918</v>
       </c>
       <c r="F55" t="n">
-        <v>0.695050411716882</v>
+        <v>2.44544076757477</v>
       </c>
       <c r="G55" t="n">
-        <v>0.732184612132668</v>
+        <v>1.94774840824166</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C56" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D56" t="n">
-        <v>1.66195465455843</v>
+        <v>0.0548865517130681</v>
       </c>
       <c r="E56" t="n">
-        <v>1.60784339838695</v>
+        <v>0.0839291664704682</v>
       </c>
       <c r="F56" t="n">
-        <v>1.72615368868342</v>
+        <v>0.0821574363992509</v>
       </c>
       <c r="G56" t="n">
-        <v>1.30468585066841</v>
+        <v>0.105580780713575</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C57" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D57" t="n">
-        <v>0.161131622353789</v>
+        <v>0.184505418529706</v>
       </c>
       <c r="E57" t="n">
-        <v>0.226768549109686</v>
+        <v>0.319578895975228</v>
       </c>
       <c r="F57" t="n">
-        <v>0.28746682185221</v>
+        <v>0.506854873003123</v>
       </c>
       <c r="G57" t="n">
-        <v>0.303977536969091</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s">
-        <v>70</v>
-      </c>
-      <c r="B58" t="s">
-        <v>57</v>
-      </c>
-      <c r="C58" t="s">
-        <v>58</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.1792356573463</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0.345561116528401</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0.585303557160736</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0.670460064438177</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s">
-        <v>70</v>
-      </c>
-      <c r="B59" t="s">
-        <v>59</v>
-      </c>
-      <c r="C59" t="s">
-        <v>60</v>
-      </c>
-      <c r="D59" t="n">
-        <v>1.9163434212171</v>
-      </c>
-      <c r="E59" t="n">
-        <v>2.43782696905918</v>
-      </c>
-      <c r="F59" t="n">
-        <v>2.44544076757477</v>
-      </c>
-      <c r="G59" t="n">
-        <v>1.94774840824166</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s">
-        <v>70</v>
-      </c>
-      <c r="B60" t="s">
-        <v>61</v>
-      </c>
-      <c r="C60" t="s">
-        <v>62</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.105010927304992</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0.202775619566205</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0.312920808858268</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0.488269137254083</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s">
-        <v>70</v>
-      </c>
-      <c r="B61" t="s">
-        <v>63</v>
-      </c>
-      <c r="C61" t="s">
-        <v>64</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.184505418529706</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0.319578895975228</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0.506854873003123</v>
-      </c>
-      <c r="G61" t="n">
         <v>0.716355209826527</v>
       </c>
     </row>
@@ -2810,102 +2721,102 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B2" t="n">
-        <v>4.979180807728</v>
+        <v>4.97925897428267</v>
       </c>
       <c r="C2" t="n">
-        <v>4.93705854162133</v>
+        <v>4.93700602306667</v>
       </c>
       <c r="D2" t="n">
-        <v>4.94476376996267</v>
+        <v>4.944710031296</v>
       </c>
       <c r="E2" t="n">
-        <v>4.95038710129067</v>
+        <v>4.95046404529067</v>
       </c>
       <c r="F2" t="n">
-        <v>4.92721480013867</v>
+        <v>4.927248997472</v>
       </c>
       <c r="G2" t="n">
-        <v>4.89187336204267</v>
+        <v>4.89202480493333</v>
       </c>
       <c r="H2" t="n">
-        <v>4.829820287952</v>
+        <v>4.829878911952</v>
       </c>
       <c r="I2" t="n">
-        <v>6.55340794822933</v>
+        <v>6.55347145756267</v>
       </c>
       <c r="J2" t="n">
-        <v>4.56696826829867</v>
+        <v>4.56704154952</v>
       </c>
       <c r="K2" t="n">
-        <v>4.508682009712</v>
+        <v>4.50866735249067</v>
       </c>
       <c r="L2" t="n">
-        <v>5.05170398532267</v>
+        <v>5.05175650021333</v>
       </c>
       <c r="M2" t="n">
-        <v>4.88591768026667</v>
+        <v>4.88590913093333</v>
       </c>
       <c r="N2" t="n">
-        <v>5.50042406870933</v>
+        <v>5.500498571264</v>
       </c>
       <c r="O2" t="n">
-        <v>5.665169111376</v>
+        <v>5.66508606070933</v>
       </c>
       <c r="P2" t="n">
-        <v>5.54685124291733</v>
+        <v>5.54683292291733</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.194334723936</v>
+        <v>5.19433594526933</v>
       </c>
       <c r="R2" t="n">
-        <v>5.48132627112533</v>
+        <v>5.48138123234667</v>
       </c>
       <c r="S2" t="n">
-        <v>4.80616361454933</v>
+        <v>4.80620880632533</v>
       </c>
       <c r="T2" t="n">
-        <v>4.97515829509867</v>
+        <v>4.97524378721067</v>
       </c>
       <c r="U2" t="n">
-        <v>5.86615657340267</v>
+        <v>5.86605520395733</v>
       </c>
       <c r="V2" t="n">
-        <v>5.33731686335467</v>
+        <v>5.33733151935467</v>
       </c>
       <c r="W2" t="n">
-        <v>5.06208077041067</v>
+        <v>5.06208199052267</v>
       </c>
       <c r="X2" t="n">
-        <v>5.444890438976</v>
+        <v>5.44496493786667</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.62006774946133</v>
+        <v>5.62009828523733</v>
       </c>
       <c r="Z2" t="n">
-        <v>6.04309861895467</v>
+        <v>6.04316334962133</v>
       </c>
       <c r="AA2" t="n">
-        <v>6.2484473756</v>
+        <v>6.248510887376</v>
       </c>
       <c r="AB2" t="n">
-        <v>5.69877314173867</v>
+        <v>5.69879146173867</v>
       </c>
       <c r="AC2" t="n">
-        <v>5.573991504624</v>
+        <v>5.57399272595733</v>
       </c>
       <c r="AD2" t="n">
-        <v>5.69026309869867</v>
+        <v>5.690195927808</v>
       </c>
       <c r="AE2" t="n">
-        <v>6.6050388476</v>
+        <v>6.60497167670933</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B3" t="n">
         <v>2.45933548371225</v>
@@ -3000,7 +2911,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B4" t="n">
         <v>1.10645253736874</v>
@@ -3095,7 +3006,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B5" t="n">
         <v>1.05534627839291</v>
@@ -3190,7 +3101,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B6" t="n">
         <v>0.383572847364061</v>
@@ -3285,7 +3196,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B7" t="n">
         <v>0.30638606854674</v>
@@ -3380,7 +3291,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B8" t="n">
         <v>0.0417228438687474</v>
@@ -3512,7 +3423,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
         <v>48</v>
@@ -3521,21 +3432,21 @@
         <v>48</v>
       </c>
       <c r="D2" t="n">
-        <v>1.04393347098133</v>
+        <v>1.04396278298133</v>
       </c>
       <c r="E2" t="n">
-        <v>1.18411674919467</v>
+        <v>1.18414117586133</v>
       </c>
       <c r="F2" t="n">
-        <v>1.635428862208</v>
+        <v>1.63540809954133</v>
       </c>
       <c r="G2" t="n">
-        <v>1.77590248799467</v>
+        <v>1.77587317599467</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
         <v>49</v>
@@ -3544,7 +3455,7 @@
         <v>50</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0392138415306667</v>
+        <v>0.039218726864</v>
       </c>
       <c r="E3" t="n">
         <v>0.0712868194186667</v>
@@ -3553,12 +3464,12 @@
         <v>0.136658545632</v>
       </c>
       <c r="G3" t="n">
-        <v>0.112803919744</v>
+        <v>0.112807583744</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
         <v>51</v>
@@ -3567,102 +3478,102 @@
         <v>52</v>
       </c>
       <c r="D4" t="n">
-        <v>0.415457381493333</v>
+        <v>0.415451274826667</v>
       </c>
       <c r="E4" t="n">
-        <v>0.172600463253333</v>
+        <v>0.17260290592</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0169619384</v>
+        <v>0.0169656024</v>
       </c>
       <c r="G4" t="n">
-        <v>0.236399998821333</v>
+        <v>0.236403662821333</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
         <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D5" t="n">
-        <v>0.15564899168</v>
+        <v>0.167685159621333</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.033583194416</v>
+        <v>-0.0357377717546667</v>
       </c>
       <c r="F5" t="n">
-        <v>0.014420833488</v>
+        <v>0.00843760576</v>
       </c>
       <c r="G5" t="n">
-        <v>0.089289346032</v>
+        <v>0.0877896842666667</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.162656637168</v>
+        <v>-0.174691582554667</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.238932067088</v>
+        <v>-0.236783598858667</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.20556309576</v>
+        <v>-0.199576204032</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.206220953525333</v>
+        <v>-0.204726174650667</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D7" t="n">
-        <v>1.557968109968</v>
+        <v>1.55802062730133</v>
       </c>
       <c r="E7" t="n">
-        <v>1.93808284913067</v>
+        <v>1.93811460379733</v>
       </c>
       <c r="F7" t="n">
-        <v>2.11102122722667</v>
+        <v>2.11106275256</v>
       </c>
       <c r="G7" t="n">
-        <v>2.24310547282133</v>
+        <v>2.243085931488</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D8" t="n">
         <v>0.008633395264</v>
       </c>
       <c r="E8" t="n">
-        <v>0.005972180768</v>
+        <v>0.00597706610133333</v>
       </c>
       <c r="F8" t="n">
         <v>-0.00400942604266667</v>
@@ -3673,22 +3584,22 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D9" t="n">
-        <v>0.075651545984</v>
+        <v>0.0756564313173333</v>
       </c>
       <c r="E9" t="n">
-        <v>0.113214104544</v>
+        <v>0.113210440544</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.138231387248</v>
+        <v>-0.138233829914667</v>
       </c>
       <c r="G9" t="n">
         <v>-0.0478077425386667</v>
@@ -3696,53 +3607,53 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D10" t="n">
-        <v>1.65423341765867</v>
+        <v>1.654219982992</v>
       </c>
       <c r="E10" t="n">
-        <v>1.520225059104</v>
+        <v>1.52022383777067</v>
       </c>
       <c r="F10" t="n">
-        <v>1.63880815353067</v>
+        <v>1.63879960419733</v>
       </c>
       <c r="G10" t="n">
-        <v>2.22398691134933</v>
+        <v>2.22397225534933</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D11" t="n">
-        <v>0.191097290336</v>
+        <v>0.191102175669333</v>
       </c>
       <c r="E11" t="n">
         <v>0.318721021413333</v>
       </c>
       <c r="F11" t="n">
-        <v>0.13182121192</v>
+        <v>0.131818769253333</v>
       </c>
       <c r="G11" t="n">
-        <v>0.179109921989333</v>
+        <v>0.179103815322667</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B12" t="s">
         <v>48</v>
@@ -3765,7 +3676,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B13" t="s">
         <v>49</v>
@@ -3788,7 +3699,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B14" t="s">
         <v>51</v>
@@ -3811,59 +3722,59 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B15" t="s">
         <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D15" t="n">
-        <v>0.23577888708531</v>
+        <v>0.29462029195581</v>
       </c>
       <c r="E15" t="n">
-        <v>0.117789884235</v>
+        <v>0.13895197083</v>
       </c>
       <c r="F15" t="n">
-        <v>0.127351636155</v>
+        <v>0.138454770771</v>
       </c>
       <c r="G15" t="n">
-        <v>0.142804944691614</v>
+        <v>0.150740154380304</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D16" t="n">
-        <v>0.37460967192234</v>
+        <v>0.31576826705184</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2791138073346</v>
+        <v>0.2579517207396</v>
       </c>
       <c r="F16" t="n">
-        <v>0.249161301126</v>
+        <v>0.23805816651</v>
       </c>
       <c r="G16" t="n">
-        <v>0.257209478070685</v>
+        <v>0.249274268381995</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D17" t="n">
         <v>0.5533202470626</v>
@@ -3880,13 +3791,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D18" t="n">
         <v>0.031807991871</v>
@@ -3903,13 +3814,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D19" t="n">
         <v>0.1785643548345</v>
@@ -3926,13 +3837,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" t="n">
         <v>0.0847207010421</v>
@@ -3949,13 +3860,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" t="n">
         <v>0.41158227519</v>
@@ -3972,7 +3883,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B22" t="s">
         <v>48</v>
@@ -3995,7 +3906,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B23" t="s">
         <v>49</v>
@@ -4018,7 +3929,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B24" t="s">
         <v>51</v>
@@ -4041,59 +3952,59 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B25" t="s">
         <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0960951896580956</v>
+        <v>0.119098091748234</v>
       </c>
       <c r="E25" t="n">
-        <v>0.050136081101812</v>
+        <v>0.0590769622190469</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0545762131628498</v>
+        <v>0.062449075721532</v>
       </c>
       <c r="G25" t="n">
-        <v>0.065265233317962</v>
+        <v>0.0745009207312162</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D26" t="n">
-        <v>0.178293568440447</v>
+        <v>0.155290666350308</v>
       </c>
       <c r="E26" t="n">
-        <v>0.142618501867275</v>
+        <v>0.13367762075004</v>
       </c>
       <c r="F26" t="n">
-        <v>0.134559325102969</v>
+        <v>0.126686462544287</v>
       </c>
       <c r="G26" t="n">
-        <v>0.143455881994419</v>
+        <v>0.134220194581165</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D27" t="n">
         <v>0.192236377675092</v>
@@ -4110,13 +4021,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D28" t="n">
         <v>0.0212710680970686</v>
@@ -4133,13 +4044,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D29" t="n">
         <v>0.111566950314943</v>
@@ -4156,13 +4067,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D30" t="n">
         <v>0.0688087366262337</v>
@@ -4179,13 +4090,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D31" t="n">
         <v>0.118146252003454</v>
@@ -4202,7 +4113,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B32" t="s">
         <v>48</v>
@@ -4225,7 +4136,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B33" t="s">
         <v>49</v>
@@ -4248,7 +4159,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B34" t="s">
         <v>51</v>
@@ -4271,59 +4182,59 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B35" t="s">
         <v>53</v>
       </c>
       <c r="C35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0054500995098</v>
+        <v>0.0056378739798</v>
       </c>
       <c r="E35" t="n">
-        <v>0.00288525834</v>
+        <v>0.0030753378</v>
       </c>
       <c r="F35" t="n">
-        <v>0.003036628845</v>
+        <v>0.003259803825</v>
       </c>
       <c r="G35" t="n">
-        <v>0.00345836636718943</v>
+        <v>0.00355070568571251</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D36" t="n">
-        <v>0.00407512242</v>
+        <v>0.00388734795</v>
       </c>
       <c r="E36" t="n">
-        <v>0.00313297416</v>
+        <v>0.0029428947</v>
       </c>
       <c r="F36" t="n">
-        <v>0.00393108228</v>
+        <v>0.0037079073</v>
       </c>
       <c r="G36" t="n">
-        <v>0.00368208407685497</v>
+        <v>0.00358974475833189</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D37" t="n">
         <v>0.0249485215352643</v>
@@ -4340,13 +4251,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D38" t="n">
         <v>0.00452911902732</v>
@@ -4363,13 +4274,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D39" t="n">
         <v>0.01059815043</v>
@@ -4386,13 +4297,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C40" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D40" t="n">
         <v>0.24928523688429</v>
@@ -4409,13 +4320,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C41" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D41" t="n">
         <v>0.231161989806</v>
@@ -4432,7 +4343,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B42" t="s">
         <v>48</v>
@@ -4455,7 +4366,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B43" t="s">
         <v>49</v>
@@ -4478,7 +4389,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B44" t="s">
         <v>51</v>
@@ -4501,59 +4412,59 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B45" t="s">
         <v>53</v>
       </c>
       <c r="C45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0459011442148311</v>
+        <v>0.0566379127458891</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0242469653333934</v>
+        <v>0.0292513432465131</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0250102940438506</v>
+        <v>0.0287656213398808</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0285639245786765</v>
+        <v>0.0317666831634079</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D46" t="n">
-        <v>0.112860590648568</v>
+        <v>0.10212382211751</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0947189701597306</v>
+        <v>0.0897145922466109</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0897561359199174</v>
+        <v>0.0860008086238872</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0932452827130801</v>
+        <v>0.0900425241283487</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D47" t="n">
         <v>0.0226885397220004</v>
@@ -4570,13 +4481,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D48" t="n">
         <v>0.00157028774070576</v>
@@ -4593,13 +4504,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C49" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D49" t="n">
         <v>0.0606868550740897</v>
@@ -4616,13 +4527,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B50" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C50" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D50" t="n">
         <v>0.0206413488056169</v>
@@ -4639,13 +4550,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B51" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C51" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D51" t="n">
         <v>0.0371374869918858</v>
@@ -4662,7 +4573,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B52" t="s">
         <v>48</v>
@@ -4685,7 +4596,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B53" t="s">
         <v>49</v>
@@ -4708,7 +4619,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B54" t="s">
         <v>51</v>
@@ -4731,59 +4642,59 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B55" t="s">
         <v>53</v>
       </c>
       <c r="C55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D55" t="n">
-        <v>0.01272203930634</v>
+        <v>0.01615785023034</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0058676913204</v>
+        <v>0.00742017305484</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0110611424196</v>
+        <v>0.0136804519215</v>
       </c>
       <c r="G55" t="n">
-        <v>0.013697831765787</v>
+        <v>0.01875591734312</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0658154844984</v>
+        <v>0.0623796735744</v>
       </c>
       <c r="E56" t="n">
-        <v>0.05672003836044</v>
+        <v>0.055167556626</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0563463006561</v>
+        <v>0.0537269911542</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0619983053614418</v>
+        <v>0.0569402197841088</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D57" t="n">
         <v>0.0152090575728</v>
@@ -4800,13 +4711,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D58" t="n">
         <v>0.0052148313672</v>
@@ -4823,13 +4734,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D59" t="n">
         <v>0.0488926969986</v>
@@ -4846,13 +4757,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D60" t="n">
         <v>0.0142952997642</v>
@@ -4869,13 +4780,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D61" t="n">
         <v>0.0421900867206</v>
@@ -4892,7 +4803,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B62" t="s">
         <v>48</v>
@@ -4915,7 +4826,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B63" t="s">
         <v>49</v>
@@ -4938,7 +4849,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B64" t="s">
         <v>51</v>
@@ -4961,59 +4872,59 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B65" t="s">
         <v>53</v>
       </c>
       <c r="C65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D65" t="n">
-        <v>0.00211033764553333</v>
+        <v>0.00261396932260615</v>
       </c>
       <c r="E65" t="n">
-        <v>0.00126021617155359</v>
+        <v>0.00154400283471798</v>
       </c>
       <c r="F65" t="n">
-        <v>0.00134599847710863</v>
+        <v>0.00178817171711645</v>
       </c>
       <c r="G65" t="n">
-        <v>0.00208187246844102</v>
+        <v>0.00279026510186548</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B66" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C66" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D66" t="n">
-        <v>0.00382561902221912</v>
+        <v>0.0033219873451463</v>
       </c>
       <c r="E66" t="n">
-        <v>0.003101542585828</v>
+        <v>0.00281775592266361</v>
       </c>
       <c r="F66" t="n">
-        <v>0.00324574937958806</v>
+        <v>0.00280357613958024</v>
       </c>
       <c r="G66" t="n">
-        <v>0.00369336928854713</v>
+        <v>0.00298497665512267</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B67" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C67" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D67" t="n">
         <v>0.00834770771588767</v>
@@ -5030,13 +4941,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B68" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C68" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D68" t="n">
         <v>0.000312681122329585</v>
@@ -5053,13 +4964,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B69" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C69" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D69" t="n">
         <v>0.00208920701383048</v>
@@ -5076,13 +4987,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B70" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C70" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D70" t="n">
         <v>0.0117251018481967</v>
@@ -5099,13 +5010,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B71" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C71" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D71" t="n">
         <v>0.00844923378024298</v>
@@ -5122,7 +5033,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>48</v>
@@ -5131,21 +5042,21 @@
         <v>48</v>
       </c>
       <c r="D72" t="n">
-        <v>1.48009086403325</v>
+        <v>1.48012017603325</v>
       </c>
       <c r="E72" t="n">
-        <v>1.71456812431841</v>
+        <v>1.71459255098508</v>
       </c>
       <c r="F72" t="n">
-        <v>2.34445790585536</v>
+        <v>2.34443714318869</v>
       </c>
       <c r="G72" t="n">
-        <v>2.63676196527048</v>
+        <v>2.63673265327048</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B73" t="s">
         <v>49</v>
@@ -5154,7 +5065,7 @@
         <v>50</v>
       </c>
       <c r="D73" t="n">
-        <v>0.260977629082957</v>
+        <v>0.26098251441629</v>
       </c>
       <c r="E73" t="n">
         <v>0.286735953744204</v>
@@ -5163,12 +5074,12 @@
         <v>0.343298435930014</v>
       </c>
       <c r="G73" t="n">
-        <v>0.317658819022004</v>
+        <v>0.317662483022004</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B74" t="s">
         <v>51</v>
@@ -5177,102 +5088,102 @@
         <v>52</v>
       </c>
       <c r="D74" t="n">
-        <v>1.38081611113264</v>
+        <v>1.38081000446598</v>
       </c>
       <c r="E74" t="n">
-        <v>1.14286445101455</v>
+        <v>1.14286689368121</v>
       </c>
       <c r="F74" t="n">
-        <v>0.999664528427194</v>
+        <v>0.999668192427194</v>
       </c>
       <c r="G74" t="n">
-        <v>1.18191509118495</v>
+        <v>1.18191875518496</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B75" t="s">
         <v>53</v>
       </c>
       <c r="C75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D75" t="n">
-        <v>0.55370668909991</v>
+        <v>0.662451149604013</v>
       </c>
       <c r="E75" t="n">
-        <v>0.168602902086159</v>
+        <v>0.203582018230451</v>
       </c>
       <c r="F75" t="n">
-        <v>0.236802746591409</v>
+        <v>0.256835501056029</v>
       </c>
       <c r="G75" t="n">
-        <v>0.34516151922167</v>
+        <v>0.369894330672293</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B76" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C76" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D76" t="n">
-        <v>0.576823419783974</v>
+        <v>0.468080181834538</v>
       </c>
       <c r="E76" t="n">
-        <v>0.340473767379873</v>
+        <v>0.305488542126248</v>
       </c>
       <c r="F76" t="n">
-        <v>0.331436798704575</v>
+        <v>0.311407708239954</v>
       </c>
       <c r="G76" t="n">
-        <v>0.357063447979695</v>
+        <v>0.332325753638405</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B77" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C77" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D77" t="n">
-        <v>2.37471856125164</v>
+        <v>2.37477107858498</v>
       </c>
       <c r="E77" t="n">
-        <v>2.86475494780063</v>
+        <v>2.8647867024673</v>
       </c>
       <c r="F77" t="n">
-        <v>3.22394119750318</v>
+        <v>3.22398272283651</v>
       </c>
       <c r="G77" t="n">
-        <v>3.43526490567405</v>
+        <v>3.43524536434072</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B78" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D78" t="n">
         <v>0.0733393744896239</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0803861707785724</v>
+        <v>0.0803910561119057</v>
       </c>
       <c r="F78" t="n">
         <v>0.0769541253910067</v>
@@ -5283,22 +5194,22 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B79" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C79" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D79" t="n">
-        <v>0.488049760649963</v>
+        <v>0.488054645983296</v>
       </c>
       <c r="E79" t="n">
-        <v>0.566853828015436</v>
+        <v>0.566850164015436</v>
       </c>
       <c r="F79" t="n">
-        <v>0.337048897908413</v>
+        <v>0.337046455241746</v>
       </c>
       <c r="G79" t="n">
         <v>0.462956496025284</v>
@@ -5306,48 +5217,48 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B80" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C80" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D80" t="n">
-        <v>2.1037098426293</v>
+        <v>2.10369640796264</v>
       </c>
       <c r="E80" t="n">
-        <v>1.99100486457618</v>
+        <v>1.99100364324285</v>
       </c>
       <c r="F80" t="n">
-        <v>2.21382078791512</v>
+        <v>2.21381223858179</v>
       </c>
       <c r="G80" t="n">
-        <v>2.83025524400546</v>
+        <v>2.83024058800546</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B81" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C81" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D81" t="n">
-        <v>1.03976461482818</v>
+        <v>1.03976950016152</v>
       </c>
       <c r="E81" t="n">
         <v>1.23030566089915</v>
       </c>
       <c r="F81" t="n">
-        <v>1.19086953544097</v>
+        <v>1.19086709277431</v>
       </c>
       <c r="G81" t="n">
-        <v>1.33520024219563</v>
+        <v>1.33519413552896</v>
       </c>
     </row>
   </sheetData>
@@ -5654,94 +5565,94 @@
         <v>43</v>
       </c>
       <c r="B4" t="n">
-        <v>10.3319968669815</v>
+        <v>10.3320750335361</v>
       </c>
       <c r="C4" t="n">
-        <v>10.259939947033</v>
+        <v>10.2598874284783</v>
       </c>
       <c r="D4" t="n">
-        <v>10.2612680462313</v>
+        <v>10.2612143075646</v>
       </c>
       <c r="E4" t="n">
-        <v>10.2174047558006</v>
+        <v>10.2174816998006</v>
       </c>
       <c r="F4" t="n">
-        <v>10.2299165400616</v>
+        <v>10.2299507373949</v>
       </c>
       <c r="G4" t="n">
-        <v>10.2435273718068</v>
+        <v>10.2436788146974</v>
       </c>
       <c r="H4" t="n">
-        <v>10.219507898624</v>
+        <v>10.219566522624</v>
       </c>
       <c r="I4" t="n">
-        <v>11.8704788926876</v>
+        <v>11.8705424020209</v>
       </c>
       <c r="J4" t="n">
-        <v>9.88689531650468</v>
+        <v>9.88696859772602</v>
       </c>
       <c r="K4" t="n">
-        <v>9.8704569272285</v>
+        <v>9.87044227000716</v>
       </c>
       <c r="L4" t="n">
-        <v>10.3865506706132</v>
+        <v>10.3866031855038</v>
       </c>
       <c r="M4" t="n">
-        <v>10.2304646425184</v>
+        <v>10.230456093185</v>
       </c>
       <c r="N4" t="n">
-        <v>10.9031617545776</v>
+        <v>10.9032362571322</v>
       </c>
       <c r="O4" t="n">
-        <v>11.1303505813172</v>
+        <v>11.1302675306506</v>
       </c>
       <c r="P4" t="n">
-        <v>11.1303514897036</v>
+        <v>11.1303331697036</v>
       </c>
       <c r="Q4" t="n">
-        <v>10.834370208324</v>
+        <v>10.8343714296573</v>
       </c>
       <c r="R4" t="n">
-        <v>11.2078801132714</v>
+        <v>11.2079350744927</v>
       </c>
       <c r="S4" t="n">
-        <v>10.5980467917919</v>
+        <v>10.5980919835679</v>
       </c>
       <c r="T4" t="n">
-        <v>10.8383513426954</v>
+        <v>10.8384368348074</v>
       </c>
       <c r="U4" t="n">
-        <v>11.7867078888791</v>
+        <v>11.7866065194338</v>
       </c>
       <c r="V4" t="n">
-        <v>11.2982949596672</v>
+        <v>11.2983096156672</v>
       </c>
       <c r="W4" t="n">
-        <v>11.0897796378519</v>
+        <v>11.0897808579639</v>
       </c>
       <c r="X4" t="n">
-        <v>11.5185185817434</v>
+        <v>11.518593080634</v>
       </c>
       <c r="Y4" t="n">
-        <v>11.7647181580433</v>
+        <v>11.7647486938193</v>
       </c>
       <c r="Z4" t="n">
-        <v>12.2027360149543</v>
+        <v>12.202800745621</v>
       </c>
       <c r="AA4" t="n">
-        <v>12.4541630684021</v>
+        <v>12.4542265801781</v>
       </c>
       <c r="AB4" t="n">
-        <v>11.9623976223147</v>
+        <v>11.9624159423147</v>
       </c>
       <c r="AC4" t="n">
-        <v>11.8715901090276</v>
+        <v>11.8715913303609</v>
       </c>
       <c r="AD4" t="n">
-        <v>12.0010790551339</v>
+        <v>12.0010118842433</v>
       </c>
       <c r="AE4" t="n">
-        <v>12.9775309663637</v>
+        <v>12.977463795473</v>
       </c>
     </row>
     <row r="5">
@@ -6048,19 +5959,19 @@
         <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D5" t="n">
-        <v>2.21771360479011</v>
+        <v>2.64029073908609</v>
       </c>
       <c r="E5" t="n">
-        <v>1.610974546276</v>
+        <v>1.7821417664147</v>
       </c>
       <c r="F5" t="n">
-        <v>1.75893635847126</v>
+        <v>1.92594651605553</v>
       </c>
       <c r="G5" t="n">
-        <v>1.72810613042458</v>
+        <v>1.84253889273607</v>
       </c>
     </row>
     <row r="6">
@@ -6068,22 +5979,22 @@
         <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D6" t="n">
-        <v>2.52514565056344</v>
+        <v>2.10256851626746</v>
       </c>
       <c r="E6" t="n">
-        <v>2.09304466047752</v>
+        <v>1.92187744033882</v>
       </c>
       <c r="F6" t="n">
-        <v>2.04481532581195</v>
+        <v>1.87780516822768</v>
       </c>
       <c r="G6" t="n">
-        <v>1.58816685612241</v>
+        <v>1.47373409381093</v>
       </c>
     </row>
     <row r="7">
@@ -6091,10 +6002,10 @@
         <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D7" t="n">
         <v>0.410604964453106</v>
@@ -6114,10 +6025,10 @@
         <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D8" t="n">
         <v>0.602902597361378</v>
@@ -6137,10 +6048,10 @@
         <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D9" t="n">
         <v>2.831883988117</v>
@@ -6160,10 +6071,10 @@
         <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D10" t="n">
         <v>0.278016833025878</v>
@@ -6183,10 +6094,10 @@
         <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D11" t="n">
         <v>0.372952835993259</v>
@@ -6278,19 +6189,19 @@
         <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D15" t="n">
-        <v>0.796097041298905</v>
+        <v>1.09952870868319</v>
       </c>
       <c r="E15" t="n">
-        <v>0.53900498433614</v>
+        <v>0.69827324488237</v>
       </c>
       <c r="F15" t="n">
-        <v>0.627131358079748</v>
+        <v>0.747157038696474</v>
       </c>
       <c r="G15" t="n">
-        <v>0.805447908502028</v>
+        <v>0.87453069724998</v>
       </c>
     </row>
     <row r="16">
@@ -6298,22 +6209,22 @@
         <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D16" t="n">
-        <v>2.06481219528003</v>
+        <v>1.76138052789574</v>
       </c>
       <c r="E16" t="n">
-        <v>1.74049471256035</v>
+        <v>1.58122645201412</v>
       </c>
       <c r="F16" t="n">
-        <v>1.4526582454923</v>
+        <v>1.33263256487558</v>
       </c>
       <c r="G16" t="n">
-        <v>1.33562628297332</v>
+        <v>1.26654349422537</v>
       </c>
     </row>
     <row r="17">
@@ -6321,10 +6232,10 @@
         <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D17" t="n">
         <v>0.51859149261169</v>
@@ -6344,10 +6255,10 @@
         <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D18" t="n">
         <v>0.21865531671516</v>
@@ -6367,10 +6278,10 @@
         <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D19" t="n">
         <v>1.31369348335739</v>
@@ -6390,10 +6301,10 @@
         <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" t="n">
         <v>0.209751208491645</v>
@@ -6413,10 +6324,10 @@
         <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" t="n">
         <v>0.385530546069995</v>
@@ -6442,16 +6353,16 @@
         <v>48</v>
       </c>
       <c r="D22" t="n">
-        <v>1.48009086403325</v>
+        <v>1.48012017603325</v>
       </c>
       <c r="E22" t="n">
-        <v>1.71456812431841</v>
+        <v>1.71459255098508</v>
       </c>
       <c r="F22" t="n">
-        <v>2.34445790585536</v>
+        <v>2.34443714318869</v>
       </c>
       <c r="G22" t="n">
-        <v>2.63676196527048</v>
+        <v>2.63673265327048</v>
       </c>
     </row>
     <row r="23">
@@ -6465,7 +6376,7 @@
         <v>50</v>
       </c>
       <c r="D23" t="n">
-        <v>0.260977629082957</v>
+        <v>0.26098251441629</v>
       </c>
       <c r="E23" t="n">
         <v>0.286735953744204</v>
@@ -6474,7 +6385,7 @@
         <v>0.343298435930014</v>
       </c>
       <c r="G23" t="n">
-        <v>0.317658819022004</v>
+        <v>0.317662483022004</v>
       </c>
     </row>
     <row r="24">
@@ -6488,16 +6399,16 @@
         <v>52</v>
       </c>
       <c r="D24" t="n">
-        <v>1.38081611113264</v>
+        <v>1.38081000446598</v>
       </c>
       <c r="E24" t="n">
-        <v>1.14286445101455</v>
+        <v>1.14286689368121</v>
       </c>
       <c r="F24" t="n">
-        <v>0.999664528427194</v>
+        <v>0.999668192427194</v>
       </c>
       <c r="G24" t="n">
-        <v>1.18191509118496</v>
+        <v>1.18191875518496</v>
       </c>
     </row>
     <row r="25">
@@ -6508,19 +6419,19 @@
         <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D25" t="n">
-        <v>0.55370668909991</v>
+        <v>0.662451149604013</v>
       </c>
       <c r="E25" t="n">
-        <v>0.168602902086159</v>
+        <v>0.203582018230451</v>
       </c>
       <c r="F25" t="n">
-        <v>0.236802746591409</v>
+        <v>0.256835501056029</v>
       </c>
       <c r="G25" t="n">
-        <v>0.34516151922167</v>
+        <v>0.369894330672293</v>
       </c>
     </row>
     <row r="26">
@@ -6528,22 +6439,22 @@
         <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D26" t="n">
-        <v>0.576823419783974</v>
+        <v>0.468080181834538</v>
       </c>
       <c r="E26" t="n">
-        <v>0.340473767379873</v>
+        <v>0.305488542126248</v>
       </c>
       <c r="F26" t="n">
-        <v>0.331436798704575</v>
+        <v>0.311407708239955</v>
       </c>
       <c r="G26" t="n">
-        <v>0.357063447979695</v>
+        <v>0.332325753638405</v>
       </c>
     </row>
     <row r="27">
@@ -6551,22 +6462,22 @@
         <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D27" t="n">
-        <v>2.37471856125164</v>
+        <v>2.37477107858498</v>
       </c>
       <c r="E27" t="n">
-        <v>2.86475494780063</v>
+        <v>2.8647867024673</v>
       </c>
       <c r="F27" t="n">
-        <v>3.22394119750318</v>
+        <v>3.22398272283651</v>
       </c>
       <c r="G27" t="n">
-        <v>3.43526490567405</v>
+        <v>3.43524536434072</v>
       </c>
     </row>
     <row r="28">
@@ -6574,16 +6485,16 @@
         <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D28" t="n">
         <v>0.073339374489624</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0803861707785724</v>
+        <v>0.0803910561119057</v>
       </c>
       <c r="F28" t="n">
         <v>0.0769541253910067</v>
@@ -6597,19 +6508,19 @@
         <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D29" t="n">
-        <v>0.488049760649963</v>
+        <v>0.488054645983296</v>
       </c>
       <c r="E29" t="n">
-        <v>0.566853828015436</v>
+        <v>0.566850164015436</v>
       </c>
       <c r="F29" t="n">
-        <v>0.337048897908413</v>
+        <v>0.337046455241746</v>
       </c>
       <c r="G29" t="n">
         <v>0.462956496025284</v>
@@ -6620,22 +6531,22 @@
         <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D30" t="n">
-        <v>2.1037098426293</v>
+        <v>2.10369640796264</v>
       </c>
       <c r="E30" t="n">
-        <v>1.99100486457618</v>
+        <v>1.99100364324285</v>
       </c>
       <c r="F30" t="n">
-        <v>2.21382078791512</v>
+        <v>2.21381223858179</v>
       </c>
       <c r="G30" t="n">
-        <v>2.83025524400546</v>
+        <v>2.83024058800546</v>
       </c>
     </row>
     <row r="31">
@@ -6643,22 +6554,22 @@
         <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D31" t="n">
-        <v>1.03976461482818</v>
+        <v>1.03976950016152</v>
       </c>
       <c r="E31" t="n">
         <v>1.23030566089915</v>
       </c>
       <c r="F31" t="n">
-        <v>1.19086953544097</v>
+        <v>1.19086709277431</v>
       </c>
       <c r="G31" t="n">
-        <v>1.33520024219563</v>
+        <v>1.33519413552896</v>
       </c>
     </row>
     <row r="32">
@@ -6738,19 +6649,19 @@
         <v>53</v>
       </c>
       <c r="C35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D35" t="n">
-        <v>0.428731807804944</v>
+        <v>0.495245124600754</v>
       </c>
       <c r="E35" t="n">
-        <v>0.263084134292389</v>
+        <v>0.293002403100712</v>
       </c>
       <c r="F35" t="n">
-        <v>0.331514090104393</v>
+        <v>0.36870870422504</v>
       </c>
       <c r="G35" t="n">
-        <v>0.338315999601461</v>
+        <v>0.365287219222088</v>
       </c>
     </row>
     <row r="36">
@@ -6758,22 +6669,22 @@
         <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D36" t="n">
-        <v>0.970835508048847</v>
+        <v>0.904322191253037</v>
       </c>
       <c r="E36" t="n">
-        <v>1.07503504995711</v>
+        <v>1.04511678114879</v>
       </c>
       <c r="F36" t="n">
-        <v>1.10854245575722</v>
+        <v>1.07134784163658</v>
       </c>
       <c r="G36" t="n">
-        <v>1.12745698663882</v>
+        <v>1.1004857670182</v>
       </c>
     </row>
     <row r="37">
@@ -6781,10 +6692,10 @@
         <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D37" t="n">
         <v>0.318741372022513</v>
@@ -6804,10 +6715,10 @@
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D38" t="n">
         <v>0.167669060362203</v>
@@ -6827,10 +6738,10 @@
         <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D39" t="n">
         <v>1.64855218081638</v>
@@ -6850,10 +6761,10 @@
         <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C40" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D40" t="n">
         <v>0.112186655614941</v>
@@ -6873,10 +6784,10 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C41" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D41" t="n">
         <v>0.100546571935408</v>
@@ -6968,19 +6879,19 @@
         <v>53</v>
       </c>
       <c r="C45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D45" t="n">
-        <v>0.348301937029686</v>
+        <v>0.405220843768916</v>
       </c>
       <c r="E45" t="n">
-        <v>0.240068862723531</v>
+        <v>0.284403889279061</v>
       </c>
       <c r="F45" t="n">
-        <v>0.228741353296159</v>
+        <v>0.266031391951589</v>
       </c>
       <c r="G45" t="n">
-        <v>0.279222271017795</v>
+        <v>0.303466004663544</v>
       </c>
     </row>
     <row r="46">
@@ -6988,22 +6899,22 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D46" t="n">
-        <v>0.829070170723808</v>
+        <v>0.772151263984578</v>
       </c>
       <c r="E46" t="n">
-        <v>0.745811667877326</v>
+        <v>0.701476641321797</v>
       </c>
       <c r="F46" t="n">
-        <v>0.792571202277911</v>
+        <v>0.755281163622481</v>
       </c>
       <c r="G46" t="n">
-        <v>0.665349627665453</v>
+        <v>0.641105894019704</v>
       </c>
     </row>
     <row r="47">
@@ -7011,10 +6922,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D47" t="n">
         <v>0.0913481276645112</v>
@@ -7034,10 +6945,10 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D48" t="n">
         <v>0.0571253750922376</v>
@@ -7057,10 +6968,10 @@
         <v>45</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C49" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D49" t="n">
         <v>0.626547644504267</v>
@@ -7080,10 +6991,10 @@
         <v>45</v>
       </c>
       <c r="B50" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C50" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D50" t="n">
         <v>0.0548865517130681</v>
@@ -7103,10 +7014,10 @@
         <v>45</v>
       </c>
       <c r="B51" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C51" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D51" t="n">
         <v>0.123819013423205</v>
@@ -7232,7 +7143,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B2" t="n">
         <v>7.65938677874716</v>
@@ -7327,7 +7238,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B3" t="n">
         <v>1.76705787840939</v>
@@ -7422,7 +7333,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B4" t="n">
         <v>0.910445857038311</v>
@@ -7517,7 +7428,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B5" t="n">
         <v>1.14324303555886</v>
@@ -7612,7 +7523,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B6" t="n">
         <v>0.529141489521187</v>
@@ -7744,7 +7655,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
         <v>48</v>
@@ -7767,7 +7678,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
         <v>49</v>
@@ -7790,7 +7701,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
         <v>51</v>
@@ -7813,59 +7724,59 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
         <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D5" t="n">
-        <v>1.50952831207688</v>
+        <v>1.83784337902021</v>
       </c>
       <c r="E5" t="n">
-        <v>1.10227766543228</v>
+        <v>1.22926390383119</v>
       </c>
       <c r="F5" t="n">
-        <v>1.13867263090916</v>
+        <v>1.25693601989315</v>
       </c>
       <c r="G5" t="n">
-        <v>1.08039330621118</v>
+        <v>1.15907270266474</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D6" t="n">
-        <v>1.92556963133097</v>
+        <v>1.59725456438764</v>
       </c>
       <c r="E6" t="n">
-        <v>1.62374266413503</v>
+        <v>1.49675642573611</v>
       </c>
       <c r="F6" t="n">
-        <v>1.62318432494139</v>
+        <v>1.5049209359574</v>
       </c>
       <c r="G6" t="n">
-        <v>1.20428832927344</v>
+        <v>1.12560893281988</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D7" t="n">
         <v>0.16125230622607</v>
@@ -7882,13 +7793,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D8" t="n">
         <v>0.183857100002609</v>
@@ -7905,13 +7816,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D9" t="n">
         <v>2.01080550143046</v>
@@ -7928,13 +7839,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D10" t="n">
         <v>0.100097150917303</v>
@@ -7951,13 +7862,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" t="s">
         <v>65</v>
-      </c>
-      <c r="B11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" t="s">
-        <v>64</v>
       </c>
       <c r="D11" t="n">
         <v>0.237112926887581</v>
@@ -7974,7 +7885,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
         <v>48</v>
@@ -7997,7 +7908,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
         <v>49</v>
@@ -8020,7 +7931,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B14" t="s">
         <v>51</v>
@@ -8043,59 +7954,59 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B15" t="s">
         <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D15" t="n">
-        <v>0.292113763498537</v>
+        <v>0.306878329061467</v>
       </c>
       <c r="E15" t="n">
-        <v>0.324280991686556</v>
+        <v>0.346237697302326</v>
       </c>
       <c r="F15" t="n">
-        <v>0.375999141659969</v>
+        <v>0.401003808504011</v>
       </c>
       <c r="G15" t="n">
-        <v>0.380901415222874</v>
+        <v>0.40777875178203</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D16" t="n">
-        <v>0.121241148791166</v>
+        <v>0.106476583228236</v>
       </c>
       <c r="E16" t="n">
-        <v>0.147591056794842</v>
+        <v>0.125634351179072</v>
       </c>
       <c r="F16" t="n">
-        <v>0.147882789758539</v>
+        <v>0.122878122914497</v>
       </c>
       <c r="G16" t="n">
-        <v>0.152489017348131</v>
+        <v>0.125611680788975</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D17" t="n">
         <v>0.117830471630433</v>
@@ -8112,13 +8023,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D18" t="n">
         <v>0.362186884438928</v>
@@ -8135,13 +8046,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D19" t="n">
         <v>0.27902305677198</v>
@@ -8158,13 +8069,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" t="n">
         <v>0.0957407831067504</v>
@@ -8181,13 +8092,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" t="n">
         <v>0.0377767118694249</v>
@@ -8204,7 +8115,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B22" t="s">
         <v>48</v>
@@ -8227,7 +8138,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B23" t="s">
         <v>49</v>
@@ -8250,7 +8161,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B24" t="s">
         <v>51</v>
@@ -8273,59 +8184,59 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B25" t="s">
         <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D25" t="n">
-        <v>0.141747170314948</v>
+        <v>0.1832626892744</v>
       </c>
       <c r="E25" t="n">
-        <v>0.070675523218986</v>
+        <v>0.087392675496206</v>
       </c>
       <c r="F25" t="n">
-        <v>0.090194326806804</v>
+        <v>0.108227407974784</v>
       </c>
       <c r="G25" t="n">
-        <v>0.120193700122839</v>
+        <v>0.125141485638994</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D26" t="n">
-        <v>0.212877658468992</v>
+        <v>0.17136213950954</v>
       </c>
       <c r="E26" t="n">
-        <v>0.08920032503183</v>
+        <v>0.07248317275461</v>
       </c>
       <c r="F26" t="n">
-        <v>0.063278299987196</v>
+        <v>0.045245218819216</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0372125399992822</v>
+        <v>0.0322647544831277</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D27" t="n">
         <v>0.00617440266454</v>
@@ -8342,13 +8253,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D28" t="n">
         <v>0.000378183428</v>
@@ -8365,13 +8276,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D29" t="n">
         <v>0.143827956008</v>
@@ -8388,13 +8299,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D30" t="n">
         <v>0.00478789484537782</v>
@@ -8411,13 +8322,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D31" t="n">
         <v>0.02590085076054</v>
@@ -8434,7 +8345,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B32" t="s">
         <v>48</v>
@@ -8457,7 +8368,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B33" t="s">
         <v>49</v>
@@ -8480,7 +8391,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B34" t="s">
         <v>51</v>
@@ -8503,59 +8414,59 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B35" t="s">
         <v>53</v>
       </c>
       <c r="C35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D35" t="n">
-        <v>0.249425705587345</v>
+        <v>0.280591991620411</v>
       </c>
       <c r="E35" t="n">
-        <v>0.090279405651853</v>
+        <v>0.095120497714958</v>
       </c>
       <c r="F35" t="n">
-        <v>0.127306459426597</v>
+        <v>0.132541676314997</v>
       </c>
       <c r="G35" t="n">
-        <v>0.119227086993387</v>
+        <v>0.123051565899417</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D36" t="n">
-        <v>0.142392572367511</v>
+        <v>0.111226286334445</v>
       </c>
       <c r="E36" t="n">
-        <v>0.107778241595544</v>
+        <v>0.102937149532439</v>
       </c>
       <c r="F36" t="n">
-        <v>0.091113034801297</v>
+        <v>0.085877817912897</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0761044286494917</v>
+        <v>0.0722799497434625</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D37" t="n">
         <v>0.0763782258416412</v>
@@ -8572,13 +8483,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D38" t="n">
         <v>0.029380643944741</v>
@@ -8595,13 +8506,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D39" t="n">
         <v>0.193753506152224</v>
@@ -8618,13 +8529,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C40" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D40" t="n">
         <v>0.058324607957147</v>
@@ -8641,13 +8552,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C41" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D41" t="n">
         <v>0.0638237280952933</v>
@@ -8664,7 +8575,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B42" t="s">
         <v>48</v>
@@ -8687,7 +8598,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B43" t="s">
         <v>49</v>
@@ -8710,7 +8621,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B44" t="s">
         <v>51</v>
@@ -8733,59 +8644,59 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B45" t="s">
         <v>53</v>
       </c>
       <c r="C45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0248986533124</v>
+        <v>0.0317143501096</v>
       </c>
       <c r="E45" t="n">
-        <v>0.02346096028633</v>
+        <v>0.02412699207002</v>
       </c>
       <c r="F45" t="n">
-        <v>0.02676379966873</v>
+        <v>0.02723760336859</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0273906218742938</v>
+        <v>0.0274943867508857</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D46" t="n">
-        <v>0.123064639604795</v>
+        <v>0.116248942807595</v>
       </c>
       <c r="E46" t="n">
-        <v>0.124732372920275</v>
+        <v>0.124066341136585</v>
       </c>
       <c r="F46" t="n">
-        <v>0.119356876323529</v>
+        <v>0.118883072623669</v>
       </c>
       <c r="G46" t="n">
-        <v>0.118072540852069</v>
+        <v>0.117968775975477</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D47" t="n">
         <v>0.0489695580904215</v>
@@ -8802,13 +8713,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D48" t="n">
         <v>0.0270997855470998</v>
@@ -8825,13 +8736,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C49" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D49" t="n">
         <v>0.204473967754333</v>
@@ -8848,13 +8759,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B50" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C50" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D50" t="n">
         <v>0.0190663961993</v>
@@ -8871,13 +8782,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B51" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C51" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D51" t="n">
         <v>0.00833861838042</v>
@@ -8894,7 +8805,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B52" t="s">
         <v>48</v>
@@ -8917,7 +8828,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B53" t="s">
         <v>49</v>
@@ -8940,7 +8851,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B54" t="s">
         <v>51</v>
@@ -8963,59 +8874,59 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B55" t="s">
         <v>53</v>
       </c>
       <c r="C55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D55" t="n">
-        <v>2.21771360479011</v>
+        <v>2.64029073908609</v>
       </c>
       <c r="E55" t="n">
-        <v>1.610974546276</v>
+        <v>1.7821417664147</v>
       </c>
       <c r="F55" t="n">
-        <v>1.75893635847126</v>
+        <v>1.92594651605553</v>
       </c>
       <c r="G55" t="n">
-        <v>1.72810613042458</v>
+        <v>1.84253889273607</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D56" t="n">
-        <v>2.52514565056344</v>
+        <v>2.10256851626746</v>
       </c>
       <c r="E56" t="n">
-        <v>2.09304466047752</v>
+        <v>1.92187744033882</v>
       </c>
       <c r="F56" t="n">
-        <v>2.04481532581195</v>
+        <v>1.87780516822768</v>
       </c>
       <c r="G56" t="n">
-        <v>1.58816685612241</v>
+        <v>1.47373409381093</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D57" t="n">
         <v>0.410604964453106</v>
@@ -9032,13 +8943,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D58" t="n">
         <v>0.602902597361378</v>
@@ -9055,13 +8966,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D59" t="n">
         <v>2.831883988117</v>
@@ -9078,13 +8989,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D60" t="n">
         <v>0.278016833025878</v>
@@ -9101,13 +9012,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D61" t="n">
         <v>0.372952835993259</v>
@@ -9233,7 +9144,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B2" t="n">
         <v>3.41791908186902</v>
@@ -9328,7 +9239,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B3" t="n">
         <v>2.53325790459013</v>
@@ -9423,7 +9334,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B4" t="n">
         <v>1.55135999074604</v>
@@ -9518,7 +9429,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B5" t="n">
         <v>1.7296993414028</v>
@@ -9613,7 +9524,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B6" t="n">
         <v>1.56678987077497</v>
@@ -9708,7 +9619,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B7" t="n">
         <v>0.51467258857</v>
@@ -9840,7 +9751,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
         <v>48</v>
@@ -9863,1588 +9774,1542 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D3" t="n">
-        <v>0.271043256904342</v>
+        <v>0.514358073051478</v>
       </c>
       <c r="E3" t="n">
-        <v>0.259386662086846</v>
+        <v>1.02360438232138</v>
       </c>
       <c r="F3" t="n">
-        <v>0.261568085915187</v>
+        <v>2.50007942379779</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2380794970683</v>
+        <v>3.20689240210087</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D4" t="n">
-        <v>0.514358073051478</v>
+        <v>0.684601293045112</v>
       </c>
       <c r="E4" t="n">
-        <v>1.02360438232138</v>
+        <v>0.406787352266774</v>
       </c>
       <c r="F4" t="n">
-        <v>2.50007942379779</v>
+        <v>0.395468556212864</v>
       </c>
       <c r="G4" t="n">
-        <v>3.20689240210087</v>
+        <v>0.347297377717705</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D5" t="n">
-        <v>0.684601293045112</v>
+        <v>0.903680991664323</v>
       </c>
       <c r="E5" t="n">
-        <v>0.406787352266774</v>
+        <v>0.647460760197705</v>
       </c>
       <c r="F5" t="n">
-        <v>0.395468556212864</v>
+        <v>0.59120167538792</v>
       </c>
       <c r="G5" t="n">
-        <v>0.347297377717705</v>
+        <v>0.435921444915981</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D6" t="n">
-        <v>0.903680991664323</v>
+        <v>0.0807927310825018</v>
       </c>
       <c r="E6" t="n">
-        <v>0.647460760197705</v>
+        <v>0.136934973673199</v>
       </c>
       <c r="F6" t="n">
-        <v>0.59120167538792</v>
+        <v>0.180994711635318</v>
       </c>
       <c r="G6" t="n">
-        <v>0.435921444915981</v>
+        <v>0.174798654283185</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0807927310825018</v>
+        <v>0.038948902908436</v>
       </c>
       <c r="E7" t="n">
-        <v>0.136934973673199</v>
+        <v>0.0776823468376183</v>
       </c>
       <c r="F7" t="n">
-        <v>0.180994711635318</v>
+        <v>0.128429531659102</v>
       </c>
       <c r="G7" t="n">
-        <v>0.174798654283185</v>
+        <v>0.147964824453869</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D8" t="n">
-        <v>0.038948902908436</v>
+        <v>0.645086013468737</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0776823468376183</v>
+        <v>0.873623831907407</v>
       </c>
       <c r="F8" t="n">
-        <v>0.128429531659102</v>
+        <v>0.554237203188237</v>
       </c>
       <c r="G8" t="n">
-        <v>0.147964824453869</v>
+        <v>0.354277320850009</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D9" t="n">
-        <v>0.645086013468737</v>
+        <v>0.115887070519384</v>
       </c>
       <c r="E9" t="n">
-        <v>0.873623831907407</v>
+        <v>0.213721633113056</v>
       </c>
       <c r="F9" t="n">
-        <v>0.554237203188237</v>
+        <v>0.375741054171527</v>
       </c>
       <c r="G9" t="n">
-        <v>0.354277320850009</v>
+        <v>0.508614116915626</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0470993233331004</v>
+        <v>0.0729251444720955</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0965518954387803</v>
+        <v>0.0859838876905539</v>
       </c>
       <c r="F10" t="n">
-        <v>0.167840366695888</v>
+        <v>0.144550058726917</v>
       </c>
       <c r="G10" t="n">
-        <v>0.303782451473895</v>
+        <v>0.19059084515431</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D11" t="n">
-        <v>0.115887070519384</v>
+        <v>0.145611341903491</v>
       </c>
       <c r="E11" t="n">
-        <v>0.213721633113056</v>
+        <v>0.157580014888827</v>
       </c>
       <c r="F11" t="n">
-        <v>0.375741054171527</v>
+        <v>0.117973658662218</v>
       </c>
       <c r="G11" t="n">
-        <v>0.508614116915626</v>
+        <v>0.129888713098687</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0729251444720955</v>
+        <v>0.657143406338908</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0859838876905539</v>
+        <v>0.637057752216322</v>
       </c>
       <c r="F12" t="n">
-        <v>0.144550058726917</v>
+        <v>1.66049677212622</v>
       </c>
       <c r="G12" t="n">
-        <v>0.19059084515431</v>
+        <v>1.48310049765154</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D13" t="n">
-        <v>0.145611341903491</v>
+        <v>0.314316974207659</v>
       </c>
       <c r="E13" t="n">
-        <v>0.157580014888827</v>
+        <v>0.141950492640795</v>
       </c>
       <c r="F13" t="n">
-        <v>0.117973658662218</v>
+        <v>0.160634652619483</v>
       </c>
       <c r="G13" t="n">
-        <v>0.129888713098687</v>
+        <v>0.192508896095337</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D14" t="n">
-        <v>0.657143406338908</v>
+        <v>0.45239161013947</v>
       </c>
       <c r="E14" t="n">
-        <v>0.637057752216322</v>
+        <v>0.461566693071677</v>
       </c>
       <c r="F14" t="n">
-        <v>1.66049677212622</v>
+        <v>0.425855258923653</v>
       </c>
       <c r="G14" t="n">
-        <v>1.48310049765154</v>
+        <v>0.405843422061131</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D15" t="n">
-        <v>0.207551440284708</v>
+        <v>0.118816251866034</v>
       </c>
       <c r="E15" t="n">
-        <v>0.10391748899139</v>
+        <v>0.159780334648549</v>
       </c>
       <c r="F15" t="n">
-        <v>0.150226492523861</v>
+        <v>0.239837862584391</v>
       </c>
       <c r="G15" t="n">
-        <v>0.18705380021445</v>
+        <v>0.256894675834732</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D16" t="n">
-        <v>0.559157144062421</v>
+        <v>0.113656133246265</v>
       </c>
       <c r="E16" t="n">
-        <v>0.499599696721082</v>
+        <v>0.169148711520498</v>
       </c>
       <c r="F16" t="n">
-        <v>0.436263419019276</v>
+        <v>0.333810757765782</v>
       </c>
       <c r="G16" t="n">
-        <v>0.411298517942017</v>
+        <v>0.418510311077784</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D17" t="n">
-        <v>0.118816251866034</v>
+        <v>0.485188617679641</v>
       </c>
       <c r="E17" t="n">
-        <v>0.159780334648549</v>
+        <v>0.512292804960268</v>
       </c>
       <c r="F17" t="n">
-        <v>0.239837862584391</v>
+        <v>0.496619019347402</v>
       </c>
       <c r="G17" t="n">
-        <v>0.256894675834732</v>
+        <v>0.512815572359737</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D18" t="n">
-        <v>0.113656133246265</v>
+        <v>0.0699269751518393</v>
       </c>
       <c r="E18" t="n">
-        <v>0.169148711520498</v>
+        <v>0.147225892675254</v>
       </c>
       <c r="F18" t="n">
-        <v>0.333810757765782</v>
+        <v>0.246729680495012</v>
       </c>
       <c r="G18" t="n">
-        <v>0.418510311077784</v>
+        <v>0.374375067356272</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D19" t="n">
-        <v>0.485188617679641</v>
+        <v>0.103281449584729</v>
       </c>
       <c r="E19" t="n">
-        <v>0.512292804960268</v>
+        <v>0.124996268216382</v>
       </c>
       <c r="F19" t="n">
-        <v>0.496619019347402</v>
+        <v>0.308867310677156</v>
       </c>
       <c r="G19" t="n">
-        <v>0.512815572359737</v>
+        <v>0.439547462625457</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0699269751518393</v>
+        <v>0.057250483467708</v>
       </c>
       <c r="E20" t="n">
-        <v>0.147225892675254</v>
+        <v>0.03830740099916</v>
       </c>
       <c r="F20" t="n">
-        <v>0.246729680495012</v>
+        <v>0.04364031367088</v>
       </c>
       <c r="G20" t="n">
-        <v>0.374375067356272</v>
+        <v>0.0391768378032936</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D21" t="n">
-        <v>0.103281449584729</v>
+        <v>0.19249494913368</v>
       </c>
       <c r="E21" t="n">
-        <v>0.124996268216382</v>
+        <v>0.1704929568626</v>
       </c>
       <c r="F21" t="n">
-        <v>0.308867310677156</v>
+        <v>0.17710320539274</v>
       </c>
       <c r="G21" t="n">
-        <v>0.439547462625457</v>
+        <v>0.153875163799249</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D22" t="n">
-        <v>0.057250483467708</v>
+        <v>0.21326057583178</v>
       </c>
       <c r="E22" t="n">
-        <v>0.03830740099916</v>
+        <v>0.4358712507595</v>
       </c>
       <c r="F22" t="n">
-        <v>0.04364031367088</v>
+        <v>1.4170099821254</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0391768378032936</v>
+        <v>1.84773355765477</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D23" t="n">
-        <v>0.19249494913368</v>
+        <v>0.36648403250948</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1704929568626</v>
+        <v>0.256989986002249</v>
       </c>
       <c r="F23" t="n">
-        <v>0.17710320539274</v>
+        <v>0.25610272269319</v>
       </c>
       <c r="G23" t="n">
-        <v>0.153875163799249</v>
+        <v>0.299194978325836</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D24" t="n">
-        <v>0.21326057583178</v>
+        <v>0.386970636121642</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4358712507595</v>
+        <v>0.292412728861668</v>
       </c>
       <c r="F24" t="n">
-        <v>1.4170099821254</v>
+        <v>0.21364480788198</v>
       </c>
       <c r="G24" t="n">
-        <v>1.84773355765477</v>
+        <v>0.181706227016313</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D25" t="n">
-        <v>0.227940438424542</v>
+        <v>0.077142856324248</v>
       </c>
       <c r="E25" t="n">
-        <v>0.169882355609549</v>
+        <v>0.09008769937402</v>
       </c>
       <c r="F25" t="n">
-        <v>0.18281008872769</v>
+        <v>0.10422695641692</v>
       </c>
       <c r="G25" t="n">
-        <v>0.263125251133553</v>
+        <v>0.0894537523036835</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D26" t="n">
-        <v>0.52551423020658</v>
+        <v>0.00664654915148</v>
       </c>
       <c r="E26" t="n">
-        <v>0.379520359254368</v>
+        <v>0.0071278887551</v>
       </c>
       <c r="F26" t="n">
-        <v>0.28693744184748</v>
+        <v>0.0105445118793</v>
       </c>
       <c r="G26" t="n">
-        <v>0.217775954208596</v>
+        <v>0.020421382007461</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D27" t="n">
-        <v>0.077142856324248</v>
+        <v>0.1810751190635</v>
       </c>
       <c r="E27" t="n">
-        <v>0.09008769937402</v>
+        <v>0.2000505543219</v>
       </c>
       <c r="F27" t="n">
-        <v>0.10422695641692</v>
+        <v>0.1218603335017</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0894537523036835</v>
+        <v>0.105690368791925</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D28" t="n">
-        <v>0.00664654915148</v>
+        <v>0.00724774630124</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0071278887551</v>
+        <v>0.008053358925588</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0105445118793</v>
+        <v>0.01199687397288</v>
       </c>
       <c r="G28" t="n">
-        <v>0.020421382007461</v>
+        <v>0.0322918782363101</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1810751190635</v>
+        <v>0.06278704284128</v>
       </c>
       <c r="E29" t="n">
-        <v>0.2000505543219</v>
+        <v>0.08194388714278</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1218603335017</v>
+        <v>0.185835048593768</v>
       </c>
       <c r="G29" t="n">
-        <v>0.105690368791925</v>
+        <v>0.344469970958275</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D30" t="n">
-        <v>0.00724774630124</v>
+        <v>0.0195200044524393</v>
       </c>
       <c r="E30" t="n">
-        <v>0.008053358925588</v>
+        <v>0.0291003663547338</v>
       </c>
       <c r="F30" t="n">
-        <v>0.01199687397288</v>
+        <v>0.0337007440825829</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0322918782363101</v>
+        <v>0.0455873546907337</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D31" t="n">
-        <v>0.06278704284128</v>
+        <v>0.135007003607696</v>
       </c>
       <c r="E31" t="n">
-        <v>0.08194388714278</v>
+        <v>0.126620967934736</v>
       </c>
       <c r="F31" t="n">
-        <v>0.185835048593768</v>
+        <v>0.11996679117624</v>
       </c>
       <c r="G31" t="n">
-        <v>0.344469970958275</v>
+        <v>0.105446209601776</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C32" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0195200044524393</v>
+        <v>0.284565926194466</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0291003663547338</v>
+        <v>0.457544664744633</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0337007440825829</v>
+        <v>0.953572315512276</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0455873546907337</v>
+        <v>1.15571709312398</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C33" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D33" t="n">
-        <v>0.135007003607696</v>
+        <v>0.254239053083839</v>
       </c>
       <c r="E33" t="n">
-        <v>0.126620967934736</v>
+        <v>0.171627570483699</v>
       </c>
       <c r="F33" t="n">
-        <v>0.11996679117624</v>
+        <v>0.159215300018016</v>
       </c>
       <c r="G33" t="n">
-        <v>0.105446209601776</v>
+        <v>0.190577059830692</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C34" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D34" t="n">
-        <v>0.284565926194466</v>
+        <v>0.500705458408544</v>
       </c>
       <c r="E34" t="n">
-        <v>0.457544664744633</v>
+        <v>0.395038430247719</v>
       </c>
       <c r="F34" t="n">
-        <v>0.953572315512276</v>
+        <v>0.318288164009155</v>
       </c>
       <c r="G34" t="n">
-        <v>1.15571709312398</v>
+        <v>0.33569459724503</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C35" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D35" t="n">
-        <v>0.211934773003915</v>
+        <v>0.0788149002009585</v>
       </c>
       <c r="E35" t="n">
-        <v>0.149812435042142</v>
+        <v>0.14059877547558</v>
       </c>
       <c r="F35" t="n">
-        <v>0.135460553509039</v>
+        <v>0.178564603283636</v>
       </c>
       <c r="G35" t="n">
-        <v>0.175278832021232</v>
+        <v>0.176207119620394</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C36" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D36" t="n">
-        <v>0.543009738488468</v>
+        <v>0.028067641053351</v>
       </c>
       <c r="E36" t="n">
-        <v>0.416853565689276</v>
+        <v>0.056326966782461</v>
       </c>
       <c r="F36" t="n">
-        <v>0.342042910518132</v>
+        <v>0.132948679980371</v>
       </c>
       <c r="G36" t="n">
-        <v>0.35099282505449</v>
+        <v>0.175070761589592</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C37" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0788149002009585</v>
+        <v>0.367244099305482</v>
       </c>
       <c r="E37" t="n">
-        <v>0.14059877547558</v>
+        <v>0.409415335989235</v>
       </c>
       <c r="F37" t="n">
-        <v>0.178564603283636</v>
+        <v>0.321829310617388</v>
       </c>
       <c r="G37" t="n">
-        <v>0.176207119620394</v>
+        <v>0.35398254876918</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C38" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D38" t="n">
-        <v>0.028067641053351</v>
+        <v>0.0209462807590896</v>
       </c>
       <c r="E38" t="n">
-        <v>0.056326966782461</v>
+        <v>0.0476355291044754</v>
       </c>
       <c r="F38" t="n">
-        <v>0.132948679980371</v>
+        <v>0.0686081632964404</v>
       </c>
       <c r="G38" t="n">
-        <v>0.175070761589592</v>
+        <v>0.0890263801482562</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B39" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C39" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D39" t="n">
-        <v>0.367244099305482</v>
+        <v>0.0405889743369294</v>
       </c>
       <c r="E39" t="n">
-        <v>0.409415335989235</v>
+        <v>0.0700158269270382</v>
       </c>
       <c r="F39" t="n">
-        <v>0.321829310617388</v>
+        <v>0.0678632495398771</v>
       </c>
       <c r="G39" t="n">
-        <v>0.35398254876918</v>
+        <v>0.0917883698483374</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B40" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C40" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0209462807590896</v>
+        <v>0.126402162335809</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0476355291044754</v>
+        <v>0.167360414704591</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0686081632964404</v>
+        <v>0.22379172883058</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0890263801482562</v>
+        <v>0.289514231938805</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C41" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0405889743369294</v>
+        <v>0.0523098648217637</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0700158269270382</v>
+        <v>0.04449268240097</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0678632495398771</v>
+        <v>0.038666494875207</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0917883698483374</v>
+        <v>0.0329425964072769</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C42" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D42" t="n">
-        <v>0.126402162335809</v>
+        <v>0.233642789129286</v>
       </c>
       <c r="E42" t="n">
-        <v>0.167360414704591</v>
+        <v>0.304709549976647</v>
       </c>
       <c r="F42" t="n">
-        <v>0.22379172883058</v>
+        <v>0.397982859945832</v>
       </c>
       <c r="G42" t="n">
-        <v>0.289514231938805</v>
+        <v>0.496847701831209</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0523098648217637</v>
+        <v>0.108828838882213</v>
       </c>
       <c r="E43" t="n">
-        <v>0.04449268240097</v>
+        <v>0.105963817755627</v>
       </c>
       <c r="F43" t="n">
-        <v>0.038666494875207</v>
+        <v>0.134950339365785</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0329425964072769</v>
+        <v>0.151127561998115</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C44" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D44" t="n">
-        <v>0.233642789129286</v>
+        <v>0.306953767026087</v>
       </c>
       <c r="E44" t="n">
-        <v>0.304709549976647</v>
+        <v>0.317164541033057</v>
       </c>
       <c r="F44" t="n">
-        <v>0.397982859945832</v>
+        <v>0.262891676960787</v>
       </c>
       <c r="G44" t="n">
-        <v>0.496847701831209</v>
+        <v>0.233090014692894</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C45" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D45" t="n">
-        <v>0.101825394585739</v>
+        <v>0.20739649022045</v>
       </c>
       <c r="E45" t="n">
-        <v>0.095621561693059</v>
+        <v>0.268009363575792</v>
       </c>
       <c r="F45" t="n">
-        <v>0.124956319319158</v>
+        <v>0.309951233433201</v>
       </c>
       <c r="G45" t="n">
-        <v>0.142402174132792</v>
+        <v>0.366584687022344</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C46" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D46" t="n">
-        <v>0.31395721132256</v>
+        <v>0.0440516172640638</v>
       </c>
       <c r="E46" t="n">
-        <v>0.327506797095625</v>
+        <v>0.0608425351491817</v>
       </c>
       <c r="F46" t="n">
-        <v>0.272885697007414</v>
+        <v>0.0939485068127396</v>
       </c>
       <c r="G46" t="n">
-        <v>0.241815402558216</v>
+        <v>0.115946690682455</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C47" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D47" t="n">
-        <v>0.20739649022045</v>
+        <v>0.247142147308762</v>
       </c>
       <c r="E47" t="n">
-        <v>0.268009363575792</v>
+        <v>0.207045723450144</v>
       </c>
       <c r="F47" t="n">
-        <v>0.309951233433201</v>
+        <v>0.163341090535941</v>
       </c>
       <c r="G47" t="n">
-        <v>0.366584687022344</v>
+        <v>0.163579223995611</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C48" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0440516172640638</v>
+        <v>0.0851751404794757</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0608425351491817</v>
+        <v>0.118771788699916</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0939485068127396</v>
+        <v>0.153457890882742</v>
       </c>
       <c r="G48" t="n">
-        <v>0.115946690682455</v>
+        <v>0.1887590291647</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C49" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D49" t="n">
-        <v>0.247142147308762</v>
+        <v>0.154887053307057</v>
       </c>
       <c r="E49" t="n">
-        <v>0.207045723450144</v>
+        <v>0.197403245308077</v>
       </c>
       <c r="F49" t="n">
-        <v>0.163341090535941</v>
+        <v>0.243447789830114</v>
       </c>
       <c r="G49" t="n">
-        <v>0.163579223995611</v>
+        <v>0.288312252349261</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B50" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C50" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0851751404794757</v>
+        <v>0.02217522057</v>
       </c>
       <c r="E50" t="n">
-        <v>0.118771788699916</v>
+        <v>0.03523094</v>
       </c>
       <c r="F50" t="n">
-        <v>0.153457890882742</v>
+        <v>0.055791904</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1887590291647</v>
+        <v>0.08560852739</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B51" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C51" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D51" t="n">
-        <v>0.154887053307057</v>
+        <v>0.04329056</v>
       </c>
       <c r="E51" t="n">
-        <v>0.197403245308077</v>
+        <v>0.04009895</v>
       </c>
       <c r="F51" t="n">
-        <v>0.243447789830114</v>
+        <v>0.0282683</v>
       </c>
       <c r="G51" t="n">
-        <v>0.288312252349261</v>
+        <v>0.028743949</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B52" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D52" t="n">
-        <v>0.02217522057</v>
+        <v>0.13304898</v>
       </c>
       <c r="E52" t="n">
-        <v>0.03523094</v>
+        <v>0.30193754</v>
       </c>
       <c r="F52" t="n">
-        <v>0.055791904</v>
+        <v>0.815548066</v>
       </c>
       <c r="G52" t="n">
-        <v>0.08560852739</v>
+        <v>0.82370418</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B53" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C53" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D53" t="n">
-        <v>0.04329056</v>
+        <v>0.05565981</v>
       </c>
       <c r="E53" t="n">
-        <v>0.04009895</v>
+        <v>0.021741378</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0282683</v>
+        <v>0.036254024</v>
       </c>
       <c r="G53" t="n">
-        <v>0.028743949</v>
+        <v>0.041122201</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B54" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D54" t="n">
-        <v>0.13304898</v>
+        <v>0.1143590562</v>
       </c>
       <c r="E54" t="n">
-        <v>0.30193754</v>
+        <v>0.1150440588</v>
       </c>
       <c r="F54" t="n">
-        <v>0.815548066</v>
+        <v>0.1119526571</v>
       </c>
       <c r="G54" t="n">
-        <v>0.82370418</v>
+        <v>0.11020923321</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D55" t="n">
-        <v>0.046844995</v>
+        <v>0.036420994</v>
       </c>
       <c r="E55" t="n">
-        <v>0.019771143</v>
+        <v>0.049954394</v>
       </c>
       <c r="F55" t="n">
-        <v>0.033677904</v>
+        <v>0.063140732</v>
       </c>
       <c r="G55" t="n">
-        <v>0.037587851</v>
+        <v>0.068815582</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D56" t="n">
-        <v>0.1231738712</v>
+        <v>0.026233376</v>
       </c>
       <c r="E56" t="n">
-        <v>0.1170142938</v>
+        <v>0.030004085</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1145287771</v>
+        <v>0.071764216</v>
       </c>
       <c r="G56" t="n">
-        <v>0.11374358321</v>
+        <v>0.078524799</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D57" t="n">
-        <v>0.036420994</v>
+        <v>0.0330435</v>
       </c>
       <c r="E57" t="n">
-        <v>0.049954394</v>
+        <v>0.0415657</v>
       </c>
       <c r="F57" t="n">
-        <v>0.063140732</v>
+        <v>0.03718119</v>
       </c>
       <c r="G57" t="n">
-        <v>0.068815582</v>
+        <v>0.0478306</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B58" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C58" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D58" t="n">
-        <v>0.026233376</v>
+        <v>0.0264550658</v>
       </c>
       <c r="E58" t="n">
-        <v>0.030004085</v>
+        <v>0.049867218</v>
       </c>
       <c r="F58" t="n">
-        <v>0.071764216</v>
+        <v>0.071066564</v>
       </c>
       <c r="G58" t="n">
-        <v>0.078524799</v>
+        <v>0.1092694971</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C59" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0330435</v>
+        <v>0.023986026</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0415657</v>
+        <v>0.04564958</v>
       </c>
       <c r="F59" t="n">
-        <v>0.03718119</v>
+        <v>0.096987187</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0478306</v>
+        <v>0.1544860992</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C60" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0264550658</v>
+        <v>0.412231803416168</v>
       </c>
       <c r="E60" t="n">
-        <v>0.049867218</v>
+        <v>0.491959177113896</v>
       </c>
       <c r="F60" t="n">
-        <v>0.071066564</v>
+        <v>0.694245530885568</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1092694971</v>
+        <v>0.847795833675276</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C61" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D61" t="n">
-        <v>0.023986026</v>
+        <v>0.568713719466631</v>
       </c>
       <c r="E61" t="n">
-        <v>0.04564958</v>
+        <v>0.539285572087133</v>
       </c>
       <c r="F61" t="n">
-        <v>0.096987187</v>
+        <v>0.481978450106405</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1544860992</v>
+        <v>0.45089663190699</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B62" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C62" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D62" t="n">
-        <v>0.412231803416168</v>
+        <v>2.03601975054592</v>
       </c>
       <c r="E62" t="n">
-        <v>0.491959177113896</v>
+        <v>3.16072514001848</v>
       </c>
       <c r="F62" t="n">
-        <v>0.694245530885568</v>
+        <v>7.74468941950751</v>
       </c>
       <c r="G62" t="n">
-        <v>0.847795833675276</v>
+        <v>9.01399543236238</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B63" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C63" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D63" t="n">
-        <v>0.839756976370973</v>
+        <v>1.7841300017283</v>
       </c>
       <c r="E63" t="n">
-        <v>0.798672234173979</v>
+        <v>1.10506059714914</v>
       </c>
       <c r="F63" t="n">
-        <v>0.743546536021592</v>
+        <v>1.14262559490934</v>
       </c>
       <c r="G63" t="n">
-        <v>0.688976128975289</v>
+        <v>1.22182807496768</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B64" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C64" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D64" t="n">
-        <v>2.03601975054592</v>
+        <v>2.66506151956007</v>
       </c>
       <c r="E64" t="n">
-        <v>3.16072514001848</v>
+        <v>2.22868721221183</v>
       </c>
       <c r="F64" t="n">
-        <v>7.74468941950751</v>
+        <v>1.9238342402635</v>
       </c>
       <c r="G64" t="n">
-        <v>9.01399543236238</v>
+        <v>1.70246493914135</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C65" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D65" t="n">
-        <v>1.48069833434402</v>
+        <v>0.599384223694192</v>
       </c>
       <c r="E65" t="n">
-        <v>0.945792336602915</v>
+        <v>0.845365540747141</v>
       </c>
       <c r="F65" t="n">
-        <v>1.02259991429261</v>
+        <v>1.07671609935347</v>
       </c>
       <c r="G65" t="n">
-        <v>1.15274528621973</v>
+        <v>1.13275447106434</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C66" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D66" t="n">
-        <v>2.96849318694435</v>
+        <v>0.257604219623596</v>
       </c>
       <c r="E66" t="n">
-        <v>2.38795547275806</v>
+        <v>0.401132534044859</v>
       </c>
       <c r="F66" t="n">
-        <v>2.04385992088022</v>
+        <v>0.771446204097294</v>
       </c>
       <c r="G66" t="n">
-        <v>1.7715477278893</v>
+        <v>0.95643876881116</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B67" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C67" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D67" t="n">
-        <v>0.599384223694192</v>
+        <v>1.95877949682612</v>
       </c>
       <c r="E67" t="n">
-        <v>0.845365540747141</v>
+        <v>2.24399395062895</v>
       </c>
       <c r="F67" t="n">
-        <v>1.07671609935347</v>
+        <v>1.69506814719067</v>
       </c>
       <c r="G67" t="n">
-        <v>1.13275447106434</v>
+        <v>1.53817563476646</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C68" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D68" t="n">
-        <v>0.257604219623596</v>
+        <v>0.209751208491645</v>
       </c>
       <c r="E68" t="n">
-        <v>0.401132534044859</v>
+        <v>0.371553787405234</v>
       </c>
       <c r="F68" t="n">
-        <v>0.771446204097294</v>
+        <v>0.551859172647074</v>
       </c>
       <c r="G68" t="n">
-        <v>0.95643876881116</v>
+        <v>0.793721852005538</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C69" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D69" t="n">
-        <v>1.95877949682612</v>
+        <v>0.501417616589379</v>
       </c>
       <c r="E69" t="n">
-        <v>2.24399395062895</v>
+        <v>0.733730440707333</v>
       </c>
       <c r="F69" t="n">
-        <v>1.69506814719067</v>
+        <v>1.27874163981244</v>
       </c>
       <c r="G69" t="n">
-        <v>1.53817563476646</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s">
-        <v>70</v>
-      </c>
-      <c r="B70" t="s">
-        <v>61</v>
-      </c>
-      <c r="C70" t="s">
-        <v>62</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.256850531824745</v>
-      </c>
-      <c r="E70" t="n">
-        <v>0.468105682844014</v>
-      </c>
-      <c r="F70" t="n">
-        <v>0.719699539342962</v>
-      </c>
-      <c r="G70" t="n">
-        <v>1.09750430347943</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s">
-        <v>70</v>
-      </c>
-      <c r="B71" t="s">
-        <v>63</v>
-      </c>
-      <c r="C71" t="s">
-        <v>64</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.501417616589379</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0.733730440707333</v>
-      </c>
-      <c r="F71" t="n">
-        <v>1.27874163981244</v>
-      </c>
-      <c r="G71" t="n">
         <v>1.82721827189696</v>
       </c>
     </row>
@@ -11559,7 +11424,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B2" t="n">
         <v>0.0886852641896966</v>
@@ -11654,7 +11519,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B3" t="n">
         <v>3.38334318036782</v>
@@ -11749,7 +11614,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B4" t="n">
         <v>0.374833673104063</v>
@@ -11844,7 +11709,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B5" t="n">
         <v>0.260335372841111</v>
@@ -11939,7 +11804,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B6" t="n">
         <v>0.481055431262327</v>
@@ -12034,7 +11899,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B7" t="n">
         <v>0.28686394713467</v>
@@ -12129,7 +11994,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B8" t="n">
         <v>0.10131054740346</v>
@@ -12224,7 +12089,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B9" t="n">
         <v>0.137791616844951</v>
@@ -12356,7 +12221,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
         <v>48</v>
@@ -12379,646 +12244,646 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0104398357525436</v>
+        <v>0.00825290034603265</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0101256353292194</v>
+        <v>0.0205088031290752</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0109547351897834</v>
+        <v>0.0615471302299548</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0119825872011848</v>
+        <v>0.118899588937882</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00825290034603265</v>
+        <v>0.0238358519969927</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0205088031290752</v>
+        <v>0.0321886406211179</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0615471302299548</v>
+        <v>0.0403244582614611</v>
       </c>
       <c r="G4" t="n">
-        <v>0.118899588937882</v>
+        <v>0.0387471257147423</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0238358519969927</v>
+        <v>0.0295966269713229</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0321886406211179</v>
+        <v>0.0314799264923488</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0403244582614611</v>
+        <v>0.0266976676052474</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0387471257147423</v>
+        <v>0.0197141972195361</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0295966269713229</v>
+        <v>0.00114371982272906</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0314799264923488</v>
+        <v>0.00155899817743297</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0266976676052474</v>
+        <v>0.00196429201669274</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0197141972195361</v>
+        <v>0.00219960885899618</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00114371982272906</v>
+        <v>0.00361940708115562</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00155899817743297</v>
+        <v>0.00430611234404775</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00196429201669274</v>
+        <v>0.00470299954527114</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00219960885899618</v>
+        <v>0.00680400282088917</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D8" t="n">
-        <v>0.00361940708115562</v>
+        <v>0.00421280171735261</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00430611234404775</v>
+        <v>0.0102873805371526</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00470299954527114</v>
+        <v>0.0145466737268993</v>
       </c>
       <c r="G8" t="n">
-        <v>0.00680400282088917</v>
+        <v>0.0170466612837677</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D9" t="n">
-        <v>0.000297380920015351</v>
+        <v>0.108704635007209</v>
       </c>
       <c r="E9" t="n">
-        <v>0.000405541783500486</v>
+        <v>0.151359143484456</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00145360167843086</v>
+        <v>0.248358311872516</v>
       </c>
       <c r="G9" t="n">
-        <v>0.00212985472877659</v>
+        <v>0.365379895203634</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D10" t="n">
-        <v>0.00421280171735261</v>
+        <v>0.244759817724356</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0102873805371526</v>
+        <v>0.306295309150958</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0145466737268993</v>
+        <v>0.290905315200281</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0170466612837677</v>
+        <v>0.268737734713436</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D11" t="n">
-        <v>0.108704635007209</v>
+        <v>0.121163709195429</v>
       </c>
       <c r="E11" t="n">
-        <v>0.151359143484456</v>
+        <v>0.300999568863473</v>
       </c>
       <c r="F11" t="n">
-        <v>0.248358311872516</v>
+        <v>0.597476620715975</v>
       </c>
       <c r="G11" t="n">
-        <v>0.365379895203634</v>
+        <v>0.924532452410638</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D12" t="n">
-        <v>0.244759817724356</v>
+        <v>0.261165373219967</v>
       </c>
       <c r="E12" t="n">
-        <v>0.306295309150958</v>
+        <v>0.155784846603252</v>
       </c>
       <c r="F12" t="n">
-        <v>0.290905315200281</v>
+        <v>0.224142780536214</v>
       </c>
       <c r="G12" t="n">
-        <v>0.268737734713436</v>
+        <v>0.22933220859649</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D13" t="n">
-        <v>0.121163709195429</v>
+        <v>0.772730071510684</v>
       </c>
       <c r="E13" t="n">
-        <v>0.300999568863473</v>
+        <v>0.916262876917424</v>
       </c>
       <c r="F13" t="n">
-        <v>0.597476620715975</v>
+        <v>0.946816132101843</v>
       </c>
       <c r="G13" t="n">
-        <v>0.924532452410638</v>
+        <v>0.989060823827199</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D14" t="n">
-        <v>0.214010748481407</v>
+        <v>0.269578853729161</v>
       </c>
       <c r="E14" t="n">
-        <v>0.137234847963879</v>
+        <v>0.376667386612868</v>
       </c>
       <c r="F14" t="n">
-        <v>0.199910370950513</v>
+        <v>0.509960237683377</v>
       </c>
       <c r="G14" t="n">
-        <v>0.210351503912346</v>
+        <v>0.54981010397959</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D15" t="n">
-        <v>0.819884696249244</v>
+        <v>0.152703671733563</v>
       </c>
       <c r="E15" t="n">
-        <v>0.934812875556797</v>
+        <v>0.221301859196147</v>
       </c>
       <c r="F15" t="n">
-        <v>0.971048541687543</v>
+        <v>0.359448774016001</v>
       </c>
       <c r="G15" t="n">
-        <v>1.00804152851134</v>
+        <v>0.417810521344393</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D16" t="n">
-        <v>0.269578853729161</v>
+        <v>1.29421049405305</v>
       </c>
       <c r="E16" t="n">
-        <v>0.376667386612868</v>
+        <v>1.60467719010577</v>
       </c>
       <c r="F16" t="n">
-        <v>0.509960237683377</v>
+        <v>1.6335382622034</v>
       </c>
       <c r="G16" t="n">
-        <v>0.54981010397959</v>
+        <v>1.66625509921567</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D17" t="n">
-        <v>0.152703671733563</v>
+        <v>0.0929857039391732</v>
       </c>
       <c r="E17" t="n">
-        <v>0.221301859196147</v>
+        <v>0.176158950739604</v>
       </c>
       <c r="F17" t="n">
-        <v>0.359448774016001</v>
+        <v>0.248072474098789</v>
       </c>
       <c r="G17" t="n">
-        <v>0.417810521344393</v>
+        <v>0.359939461227654</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D18" t="n">
-        <v>1.29421049405305</v>
+        <v>0.0653408502552258</v>
       </c>
       <c r="E18" t="n">
-        <v>1.60467719010577</v>
+        <v>0.120202182302849</v>
       </c>
       <c r="F18" t="n">
-        <v>1.6335382622034</v>
+        <v>0.228030121267788</v>
       </c>
       <c r="G18" t="n">
-        <v>1.66625509921567</v>
+        <v>0.362287975396136</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0929857039391732</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.176158950739604</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.248072474098789</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.359939461227654</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0653408502552258</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.120202182302849</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.228030121267788</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.362287975396136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>0.00335678280448673</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.00578712667273419</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>0.00821783187520505</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.00681435395815365</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
         <v>50</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>0.0114375275618887</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>0.017652946819801</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>0.0177220561731584</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.0201017944998535</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D23" t="n">
-        <v>0.00335678280448673</v>
+        <v>0.00785830905625962</v>
       </c>
       <c r="E23" t="n">
-        <v>0.00578712667273419</v>
+        <v>0.0201844027730678</v>
       </c>
       <c r="F23" t="n">
-        <v>0.00821783187520505</v>
+        <v>0.0353840874096894</v>
       </c>
       <c r="G23" t="n">
-        <v>0.00681435395815365</v>
+        <v>0.0781928546207467</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0114375275618887</v>
+        <v>0.0295214411226373</v>
       </c>
       <c r="E24" t="n">
-        <v>0.017652946819801</v>
+        <v>0.01506335993141</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0177220561731584</v>
+        <v>0.0170259474000268</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0201017944998535</v>
+        <v>0.0173619597979122</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D25" t="n">
-        <v>0.00785830905625962</v>
+        <v>0.0176042184754531</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0201844027730678</v>
+        <v>0.0224712731743157</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0353840874096894</v>
+        <v>0.0214928300938331</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0781928546207467</v>
+        <v>0.0228536701211214</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0295214411226373</v>
+        <v>0.0090741406413079</v>
       </c>
       <c r="E26" t="n">
-        <v>0.01505715069541</v>
+        <v>0.01253380162247</v>
       </c>
       <c r="F26" t="n">
-        <v>0.01701962129103</v>
+        <v>0.0139527634528271</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0173619597979122</v>
+        <v>0.0147689450807697</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0176042184754531</v>
+        <v>0.0016723121631395</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0224774824103157</v>
+        <v>0.0027852958519131</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0214991562028299</v>
+        <v>0.0037429663359796</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0228536701211214</v>
+        <v>0.0042527645432913</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0090741406413079</v>
+        <v>0.201645367732951</v>
       </c>
       <c r="E28" t="n">
-        <v>0.01253380162247</v>
+        <v>0.218733001644747</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0139527634528271</v>
+        <v>0.158566286262094</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0147689450807697</v>
+        <v>0.197365524632222</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0016723121631395</v>
+        <v>0.00274528134577947</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0027852958519131</v>
+        <v>0.00508413740436414</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0037429663359796</v>
+        <v>0.0102148215575125</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0042527645432913</v>
+        <v>0.0189794898467986</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D30" t="n">
-        <v>0.201645367732951</v>
+        <v>0.00194856623076699</v>
       </c>
       <c r="E30" t="n">
-        <v>0.218733001644747</v>
+        <v>0.00309403906797159</v>
       </c>
       <c r="F30" t="n">
-        <v>0.158566286262094</v>
+        <v>0.00744022429039319</v>
       </c>
       <c r="G30" t="n">
-        <v>0.197365524632222</v>
+        <v>0.0134467557092719</v>
       </c>
     </row>
     <row r="31">
@@ -13026,22 +12891,22 @@
         <v>81</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D31" t="n">
-        <v>0.00274528134577947</v>
+        <v>0.00670006192471086</v>
       </c>
       <c r="E31" t="n">
-        <v>0.00508413740436414</v>
+        <v>0.0113175202422502</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0102148215575125</v>
+        <v>0.0184419470615936</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0189794898467986</v>
+        <v>0.0189458630615487</v>
       </c>
     </row>
     <row r="32">
@@ -13049,912 +12914,866 @@
         <v>81</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C32" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D32" t="n">
-        <v>0.00194856623076699</v>
+        <v>0.0230256078076</v>
       </c>
       <c r="E32" t="n">
-        <v>0.00309403906797159</v>
+        <v>0.0233063588111</v>
       </c>
       <c r="F32" t="n">
-        <v>0.00744022429039319</v>
+        <v>0.0228385949386</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0134467557092719</v>
+        <v>0.0226518486737269</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C33" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D33" t="n">
-        <v>0.00670006192471086</v>
+        <v>0.05324210900266</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0113175202422502</v>
+        <v>0.0371997462557941</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0184419470615936</v>
+        <v>0.0540477900951976</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0189458630615487</v>
+        <v>0.0697420522276156</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C34" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0230256078076</v>
+        <v>0.16241828119035</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0233063588111</v>
+        <v>0.1080966289889</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0228385949386</v>
+        <v>0.11698918158075</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0226518486737269</v>
+        <v>0.108553250878314</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C35" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D35" t="n">
-        <v>0.05324210900266</v>
+        <v>0.07515356421705</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0371997462557941</v>
+        <v>0.07113645146315</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0540477900951976</v>
+        <v>0.0682104202002</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0697420522276156</v>
+        <v>0.06239046713284</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C36" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1457395104628</v>
+        <v>0.0272261242979294</v>
       </c>
       <c r="E36" t="n">
-        <v>0.09758019270945</v>
+        <v>0.0403627750554618</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1049795291094</v>
+        <v>0.0525513749622872</v>
       </c>
       <c r="G36" t="n">
-        <v>0.10112901144349</v>
+        <v>0.0484394958237535</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C37" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0918323349446</v>
+        <v>0.0132327098559</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0816528877426</v>
+        <v>0.01795711426</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08022007267155</v>
+        <v>0.0171398542015</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0698147065676631</v>
+        <v>0.0113434114760733</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C38" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0272261242979294</v>
+        <v>0.093798683389534</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0403627750554618</v>
+        <v>0.0928757593152101</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0525513749622872</v>
+        <v>0.0987442066008088</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0484394958237535</v>
+        <v>0.0970037062242813</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C39" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0132327098559</v>
+        <v>0.0103727691405274</v>
       </c>
       <c r="E39" t="n">
-        <v>0.01795711426</v>
+        <v>0.0213755388736841</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0171398542015</v>
+        <v>0.0240506074575117</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0113434114760733</v>
+        <v>0.0275034932071277</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B40" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C40" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D40" t="n">
-        <v>0.093798683389534</v>
+        <v>0.015885520436065</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0928757593152101</v>
+        <v>0.0292723886401456</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0987442066008088</v>
+        <v>0.0318541931769371</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0970037062242813</v>
+        <v>0.0446866291969562</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B41" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0103727691405274</v>
+        <v>0.000746251335</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0213755388736841</v>
+        <v>0.003169225565</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0240506074575117</v>
+        <v>0.0027171484948799</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0275034932071277</v>
+        <v>0.00266246900118895</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B42" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D42" t="n">
-        <v>0.015885520436065</v>
+        <v>0.0159139745</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0292723886401456</v>
+        <v>0.01674823458</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0318541931769371</v>
+        <v>0.01337664979</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0446866291969562</v>
+        <v>0.0112952947245689</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C43" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D43" t="n">
-        <v>0.000746251335</v>
+        <v>0.0139378538876962</v>
       </c>
       <c r="E43" t="n">
-        <v>0.003169225565</v>
+        <v>0.0429222885857282</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0027171484948799</v>
+        <v>0.05408065569668</v>
       </c>
       <c r="G43" t="n">
-        <v>0.00266246900118895</v>
+        <v>0.0841476793592798</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B44" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C44" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0159139745</v>
+        <v>0.01490357075</v>
       </c>
       <c r="E44" t="n">
-        <v>0.01674823458</v>
+        <v>0.003759778105</v>
       </c>
       <c r="F44" t="n">
-        <v>0.01337664979</v>
+        <v>0.002485411375</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0112952947245689</v>
+        <v>0.00161949092634467</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B45" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C45" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0139378538876962</v>
+        <v>0.0234105160515</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0429222885857282</v>
+        <v>0.0222372034564</v>
       </c>
       <c r="F45" t="n">
-        <v>0.05408065569668</v>
+        <v>0.0245179228443</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0841476793592798</v>
+        <v>0.0191288631995049</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B46" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C46" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D46" t="n">
-        <v>0.01490357075</v>
+        <v>0.00853155075976508</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003759778105</v>
+        <v>0.00988207654410302</v>
       </c>
       <c r="F46" t="n">
-        <v>0.00223423468</v>
+        <v>0.0106993852757309</v>
       </c>
       <c r="G46" t="n">
-        <v>0.00151561396492277</v>
+        <v>0.00809573788888297</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C47" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0234105160515</v>
+        <v>0.016071138032838</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0222372034564</v>
+        <v>0.0147147788610505</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0247690995393</v>
+        <v>0.0168469967399884</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0192327401609268</v>
+        <v>0.0294960692105408</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C48" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D48" t="n">
-        <v>0.00853155075976508</v>
+        <v>0.00565708498596063</v>
       </c>
       <c r="E48" t="n">
-        <v>0.00988207654410302</v>
+        <v>0.00880017167643274</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0106993852757309</v>
+        <v>0.00860641986424271</v>
       </c>
       <c r="G48" t="n">
-        <v>0.00809573788888297</v>
+        <v>0.013937415827496</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C49" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D49" t="n">
-        <v>0.016071138032838</v>
+        <v>0.00213860710070014</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0147147788610505</v>
+        <v>0.00209500490867482</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0168469967399884</v>
+        <v>0.003755525047646</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0294960692105408</v>
+        <v>0.00632680164334244</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B50" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C50" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D50" t="n">
-        <v>0.00565708498596063</v>
+        <v>0.00152142514920107</v>
       </c>
       <c r="E50" t="n">
-        <v>0.00880017167643274</v>
+        <v>0.0013248711913</v>
       </c>
       <c r="F50" t="n">
-        <v>0.00860641986424271</v>
+        <v>0.0011611841939258</v>
       </c>
       <c r="G50" t="n">
-        <v>0.013937415827496</v>
+        <v>0.00205608076873459</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B51" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C51" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D51" t="n">
-        <v>0.00213860710070014</v>
+        <v>0.00305612310595</v>
       </c>
       <c r="E51" t="n">
-        <v>0.00209500490867482</v>
+        <v>0.0030662256073</v>
       </c>
       <c r="F51" t="n">
-        <v>0.003755525047646</v>
+        <v>0.00345120949025</v>
       </c>
       <c r="G51" t="n">
-        <v>0.00632680164334244</v>
+        <v>0.00452494181765082</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B52" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D52" t="n">
-        <v>0.00152142514920107</v>
+        <v>0.02767737834555</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0013248711913</v>
+        <v>0.01538172291155</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0011611841939258</v>
+        <v>0.01977362959865</v>
       </c>
       <c r="G52" t="n">
-        <v>0.00205608076873459</v>
+        <v>0.0126090833894176</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B53" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C53" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D53" t="n">
-        <v>0.00305612310595</v>
+        <v>0.0272364583178</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0030662256073</v>
+        <v>0.01029778947215</v>
       </c>
       <c r="F53" t="n">
-        <v>0.00345120949025</v>
+        <v>0.00806538333305</v>
       </c>
       <c r="G53" t="n">
-        <v>0.00452494181765082</v>
+        <v>0.00842030902302765</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B54" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D54" t="n">
-        <v>0.02767737834555</v>
+        <v>0.01542382099835</v>
       </c>
       <c r="E54" t="n">
-        <v>0.01538172291155</v>
+        <v>0.0130089761375</v>
       </c>
       <c r="F54" t="n">
-        <v>0.01977362959865</v>
+        <v>0.0103105363964</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0126090833894176</v>
+        <v>0.00705194273753123</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0245565369881</v>
+        <v>0.00433070259435</v>
       </c>
       <c r="E55" t="n">
-        <v>0.00945216481865</v>
+        <v>0.00347677102505</v>
       </c>
       <c r="F55" t="n">
-        <v>0.00737033407345</v>
+        <v>0.00545053158115</v>
       </c>
       <c r="G55" t="n">
-        <v>0.00795791048278956</v>
+        <v>0.00565752720893157</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D56" t="n">
-        <v>0.01810374232805</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0.013854600791</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0.011005585656</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0.00751434127776932</v>
-      </c>
+        <v>0.0000603666096</v>
+      </c>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D57" t="n">
-        <v>0.00433070259435</v>
+        <v>0.042826497608</v>
       </c>
       <c r="E57" t="n">
-        <v>0.00347677102505</v>
+        <v>0.04060784368</v>
       </c>
       <c r="F57" t="n">
-        <v>0.00545053158115</v>
+        <v>0.035842520011</v>
       </c>
       <c r="G57" t="n">
-        <v>0.00565752720893157</v>
+        <v>0.0465904285193267</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B58" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C58" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0000603666096</v>
-      </c>
-      <c r="E58"/>
-      <c r="F58"/>
-      <c r="G58"/>
+        <v>0.0004258162035</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.00048194834915</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.0009191138364</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.00213880180479077</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C59" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D59" t="n">
-        <v>0.042826497608</v>
+        <v>0.01523302791265</v>
       </c>
       <c r="E59" t="n">
-        <v>0.04060784368</v>
+        <v>0.00661305754965</v>
       </c>
       <c r="F59" t="n">
-        <v>0.035842520011</v>
+        <v>0.0099517337058</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0465904285193267</v>
+        <v>0.0123303666148013</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C60" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0004258162035</v>
+        <v>0.125469109004431</v>
       </c>
       <c r="E60" t="n">
-        <v>0.00048194834915</v>
+        <v>0.17710088950465</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0009191138364</v>
+        <v>0.283180962929526</v>
       </c>
       <c r="G60" t="n">
-        <v>0.00213880180479077</v>
+        <v>0.400627698475027</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C61" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D61" t="n">
-        <v>0.01523302791265</v>
+        <v>0.298193050699795</v>
       </c>
       <c r="E61" t="n">
-        <v>0.00661305754965</v>
+        <v>0.367069074969159</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0099517337058</v>
+        <v>0.348293825592289</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0123303666148013</v>
+        <v>0.327311614429236</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B62" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C62" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D62" t="n">
-        <v>0.125469109004431</v>
+        <v>0.232132259833628</v>
       </c>
       <c r="E62" t="n">
-        <v>0.17710088950465</v>
+        <v>0.437196532518688</v>
       </c>
       <c r="F62" t="n">
-        <v>0.283180962929526</v>
+        <v>0.822309913746147</v>
       </c>
       <c r="G62" t="n">
-        <v>0.400627698475027</v>
+        <v>1.28812371094558</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B63" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C63" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D63" t="n">
-        <v>0.308632886452338</v>
+        <v>0.519080976597747</v>
       </c>
       <c r="E63" t="n">
-        <v>0.377194710298378</v>
+        <v>0.32519104372183</v>
       </c>
       <c r="F63" t="n">
-        <v>0.359248560782073</v>
+        <v>0.409033162486501</v>
       </c>
       <c r="G63" t="n">
-        <v>0.339294201630421</v>
+        <v>0.404034344936831</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B64" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C64" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D64" t="n">
-        <v>0.232132259833628</v>
+        <v>0.93391881822436</v>
       </c>
       <c r="E64" t="n">
-        <v>0.437196532518688</v>
+        <v>1.07659670764114</v>
       </c>
       <c r="F64" t="n">
-        <v>0.822309913746147</v>
+        <v>1.09804550924182</v>
       </c>
       <c r="G64" t="n">
-        <v>1.28812371094558</v>
+        <v>1.12019996423773</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C65" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D65" t="n">
-        <v>0.452567659801937</v>
+        <v>0.319885091845242</v>
       </c>
       <c r="E65" t="n">
-        <v>0.295272774913507</v>
+        <v>0.444481809037385</v>
       </c>
       <c r="F65" t="n">
-        <v>0.371838548365854</v>
+        <v>0.594578584972065</v>
       </c>
       <c r="G65" t="n">
-        <v>0.377063125316203</v>
+        <v>0.628971418840924</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C66" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D66" t="n">
-        <v>1.00043213502017</v>
+        <v>0.167669060362203</v>
       </c>
       <c r="E66" t="n">
-        <v>1.10651497644946</v>
+        <v>0.24204426930806</v>
       </c>
       <c r="F66" t="n">
-        <v>1.13524012336247</v>
+        <v>0.380331594553481</v>
       </c>
       <c r="G66" t="n">
-        <v>1.14717118385836</v>
+        <v>0.433406697363757</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B67" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C67" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D67" t="n">
-        <v>0.319885091845242</v>
+        <v>1.65217158789753</v>
       </c>
       <c r="E67" t="n">
-        <v>0.444481809037385</v>
+        <v>1.97591468595083</v>
       </c>
       <c r="F67" t="n">
-        <v>0.594578584972065</v>
+        <v>1.94824127136256</v>
       </c>
       <c r="G67" t="n">
-        <v>0.628971418840924</v>
+        <v>2.04351483062293</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C68" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D68" t="n">
-        <v>0.167669060362203</v>
+        <v>0.112186655614941</v>
       </c>
       <c r="E68" t="n">
-        <v>0.24204426930806</v>
+        <v>0.211900747043235</v>
       </c>
       <c r="F68" t="n">
-        <v>0.380331594553481</v>
+        <v>0.291863436814456</v>
       </c>
       <c r="G68" t="n">
-        <v>0.433406697363757</v>
+        <v>0.422498661913867</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C69" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D69" t="n">
-        <v>1.65217158789753</v>
+        <v>0.104759373652761</v>
       </c>
       <c r="E69" t="n">
-        <v>1.97591468595083</v>
+        <v>0.171564053006443</v>
       </c>
       <c r="F69" t="n">
-        <v>1.94824127136256</v>
+        <v>0.295578471215464</v>
       </c>
       <c r="G69" t="n">
-        <v>2.04351483062293</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s">
-        <v>70</v>
-      </c>
-      <c r="B70" t="s">
-        <v>61</v>
-      </c>
-      <c r="C70" t="s">
-        <v>62</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.112484036534956</v>
-      </c>
-      <c r="E70" t="n">
-        <v>0.212306288826735</v>
-      </c>
-      <c r="F70" t="n">
-        <v>0.293317038492887</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0.424628516642644</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s">
-        <v>70</v>
-      </c>
-      <c r="B71" t="s">
-        <v>63</v>
-      </c>
-      <c r="C71" t="s">
-        <v>64</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.104759373652761</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0.171564053006443</v>
-      </c>
-      <c r="F71" t="n">
-        <v>0.295578471215464</v>
-      </c>
-      <c r="G71" t="n">
         <v>0.456125189844275</v>
       </c>
     </row>
